--- a/Code/Coding together/manual_att.xlsx
+++ b/Code/Coding together/manual_att.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Difference-in-Differences/Code/Coding together/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC7EACB-A754-164C-B329-1D8C5362F5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523F22A3-2290-0A47-B2EF-689444D657EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="50280" windowHeight="28300" activeTab="2" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="50280" windowHeight="28300" activeTab="1" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -521,6 +521,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,10 +1046,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C21F52C-6D5D-F84D-AAE0-12B2E6D6DFD4}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection sqref="A1:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1636,6 +1642,21 @@
       <c r="A30" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1646,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD037F86-B1EB-D145-9FD4-1C559B132293}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2253,7 +2274,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView zoomScale="240" zoomScaleNormal="240" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C25"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Code/Coding together/manual_att.xlsx
+++ b/Code/Coding together/manual_att.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Difference-in-Differences/Code/Coding together/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523F22A3-2290-0A47-B2EF-689444D657EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7EBC89-0C86-7D4C-8665-6B0F542E69F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="50280" windowHeight="28300" activeTab="1" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="50280" windowHeight="28300" activeTab="3" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="1" r:id="rId1"/>
     <sheet name="Overall ATT" sheetId="6" r:id="rId2"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
-    <sheet name="1986" sheetId="2" r:id="rId4"/>
-    <sheet name="1992" sheetId="3" r:id="rId5"/>
-    <sheet name="1998" sheetId="4" r:id="rId6"/>
-    <sheet name="2004" sheetId="5" r:id="rId7"/>
+    <sheet name="Not yet treated" sheetId="8" r:id="rId3"/>
+    <sheet name="Castle" sheetId="9" r:id="rId4"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId5"/>
+    <sheet name="1986" sheetId="2" r:id="rId6"/>
+    <sheet name="1992" sheetId="3" r:id="rId7"/>
+    <sheet name="1998" sheetId="4" r:id="rId8"/>
+    <sheet name="2004" sheetId="5" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="156">
   <si>
     <t>Treatment group</t>
   </si>
@@ -152,6 +154,9 @@
     <t>It's the average treatment effect for a group of units treated at the same time.</t>
   </si>
   <si>
+    <t>Overall ATT</t>
+  </si>
+  <si>
     <t>In this "overall ATT using uniform weights", each ATT(g,t) was counted, added together, divided by 60</t>
   </si>
   <si>
@@ -363,13 +368,154 @@
   </si>
   <si>
     <t>This is something OLS struggles with in that canonical static specification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can define these, but that does not mean we can estimate </t>
+  </si>
+  <si>
+    <t>them using CS, bc remember CS needs an untreated group for claculation.</t>
+  </si>
+  <si>
+    <t>The 1986 to 1991 ATT(1986,t) can be identified bc we have</t>
+  </si>
+  <si>
+    <t>untreated units in those years.</t>
+  </si>
+  <si>
+    <t>The 1992 to 1997 ATT(1986,t) and ATT(1992,t) can be identified</t>
+  </si>
+  <si>
+    <t>bc we have two untreated groups in those years (1998 and 2004)</t>
+  </si>
+  <si>
+    <t>And the 1998 to 2003 ATT(1986,t), ATT(1992,t) and ATT(1998,t)</t>
+  </si>
+  <si>
+    <t>can also be identified bc we have a single not-yet-treated group</t>
+  </si>
+  <si>
+    <t>in those years (2004 group).</t>
+  </si>
+  <si>
+    <t>BUT -- we cannot calculate any of these. And there's two types</t>
+  </si>
+  <si>
+    <t>1) We can't get any ATT(g,2004 to 2009), not even for our</t>
+  </si>
+  <si>
+    <t>1986 group, bc in those years we don't have any untreated groups</t>
+  </si>
+  <si>
+    <t>and CS has to use an untreated group for its calculation.</t>
+  </si>
+  <si>
+    <t>2) We also cannot get any ATT(2004) ever. Because in this baker</t>
+  </si>
+  <si>
+    <t>dataset, once we hit 2004, we have run out of untreated groups.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So you can't calculate it. </t>
+  </si>
+  <si>
+    <t>ATT 1</t>
+  </si>
+  <si>
+    <t>ATT 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feasible </t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>1. CS always needs an untreated group for calculating those DiD equations (after minus before for treated) - (after minus before for comparison) for each gorup-time</t>
+  </si>
+  <si>
+    <t>2. OLS doesn't.  And if you have homoegenous treatment effects, then you actually increase the precision of your estimates by using that data through 2009 bc OLS will just go through some kind of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extrapolation procedure and the after compared to already treated won't matter. </t>
+  </si>
+  <si>
+    <t>ATT(2005)</t>
+  </si>
+  <si>
+    <t>ATT(2006)</t>
+  </si>
+  <si>
+    <t>ATT(2007</t>
+  </si>
+  <si>
+    <t>ATT(2008</t>
+  </si>
+  <si>
+    <t>ATT(2009</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Untreated</t>
+  </si>
+  <si>
+    <t>With CS, we can calculate every group ATT for which there are zeroes on that row. Which means</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we can get theroetically every group-time ATT which means with this dataset, we can get </t>
+  </si>
+  <si>
+    <t>an overall ATT for the entire treated group period.</t>
+  </si>
+  <si>
+    <t>Number of ATT(g,t) not counting the pre-period: 20 ATT(g,t)</t>
+  </si>
+  <si>
+    <t>So when we calculated in CS the overall ATT, it was the average over 20 of them.</t>
+  </si>
+  <si>
+    <t>ATT = 0.1084 = 1/20 Sum_j ATT(g,t)_j</t>
+  </si>
+  <si>
+    <t>In this DiD world, there shouldn't be treatment effects before the treatment occurred UNLESS no anticipation was violated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If I won the lottery, and I get paid in November, then my spending today may go up (Y_today) even though D_today=0. </t>
+  </si>
+  <si>
+    <t>This happens with forward looking economic agents, whether it's people, or aggregates of people (states, firms).</t>
+  </si>
+  <si>
+    <t>It is a violation, though, of DiD designs for there to be any anticipation, bc we are using in our DiD designs a control (baseline),</t>
+  </si>
+  <si>
+    <t>and controls can never be treated otherwise it contaminates the results as we saw. So anticipation is what we need to calculate</t>
+  </si>
+  <si>
+    <t>any treatment effects.  But it's also a placebo -- there SHOULD NOT be treatment effects before there were actually any t</t>
+  </si>
+  <si>
+    <t>treatments. These zeroes are valuable for us as researchers.  They don't directly test the PT assumption, but they can give</t>
+  </si>
+  <si>
+    <t>us more confidence in it.  Remember how I said physical randomization deletes selection bias and we know this because</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"we know how the science works".  There is no "science of PT", but the closest we get to it is the event study. </t>
+  </si>
+  <si>
+    <t>Event studies are NOT measures of the PT assumption (PT does not need zero treatment effects in the pre-period; it's a</t>
+  </si>
+  <si>
+    <t>differnet assumption). But they are the best we have, and they give us some comfort.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -392,8 +538,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,8 +595,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -488,11 +671,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -527,6 +818,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,7 +1199,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -931,7 +1266,7 @@
         <v>1/60</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1046,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C21F52C-6D5D-F84D-AAE0-12B2E6D6DFD4}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:A36"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection sqref="A1:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1071,10 +1406,10 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -1094,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1114,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1137,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1163,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1183,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1203,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1226,10 +1561,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1249,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1272,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1292,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1315,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1335,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1358,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
@@ -1381,10 +1716,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
@@ -1421,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1444,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1464,10 +1799,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1487,10 +1822,10 @@
         <v>4</v>
       </c>
       <c r="G20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1510,7 +1845,7 @@
         <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1530,7 +1865,7 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1550,7 +1885,7 @@
         <v>16</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1587,7 +1922,7 @@
         <v>24</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1611,52 +1946,76 @@
         <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" s="5">
         <f>AVERAGE(B2:B25,C8:C25,D14:D25,E20:E25)</f>
         <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B28" s="8">
         <f>AVERAGE(B26:E26)</f>
         <v>63.5</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="20"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
+      <c r="B36">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <f>AVERAGE(B32:B36)</f>
+        <v>0.09</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1664,6 +2023,1344 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B26958-D2FD-B340-96F0-C0F0E677AC3F}">
+  <dimension ref="A1:M36"/>
+  <sheetViews>
+    <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
+        <v>1986</v>
+      </c>
+      <c r="B2" s="31">
+        <v>10</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0</v>
+      </c>
+      <c r="D2" s="29">
+        <v>0</v>
+      </c>
+      <c r="E2" s="30">
+        <v>0</v>
+      </c>
+      <c r="H2" s="22">
+        <v>1986</v>
+      </c>
+      <c r="I2" s="34">
+        <v>10</v>
+      </c>
+      <c r="J2" s="39">
+        <v>0</v>
+      </c>
+      <c r="K2" s="39">
+        <v>0</v>
+      </c>
+      <c r="L2" s="40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="23">
+        <v>1987</v>
+      </c>
+      <c r="B3" s="31">
+        <v>20</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0</v>
+      </c>
+      <c r="D3" s="29">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
+        <v>0</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1987</v>
+      </c>
+      <c r="I3" s="35">
+        <v>20</v>
+      </c>
+      <c r="J3" s="41">
+        <v>0</v>
+      </c>
+      <c r="K3" s="41">
+        <v>0</v>
+      </c>
+      <c r="L3" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <v>1988</v>
+      </c>
+      <c r="B4" s="31">
+        <v>30</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0</v>
+      </c>
+      <c r="D4" s="29">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
+        <v>0</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1988</v>
+      </c>
+      <c r="I4" s="35">
+        <v>30</v>
+      </c>
+      <c r="J4" s="41">
+        <v>0</v>
+      </c>
+      <c r="K4" s="41">
+        <v>0</v>
+      </c>
+      <c r="L4" s="42">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <v>1989</v>
+      </c>
+      <c r="B5" s="31">
+        <v>40</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1989</v>
+      </c>
+      <c r="I5" s="35">
+        <v>40</v>
+      </c>
+      <c r="J5" s="41">
+        <v>0</v>
+      </c>
+      <c r="K5" s="41">
+        <v>0</v>
+      </c>
+      <c r="L5" s="42">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <v>1990</v>
+      </c>
+      <c r="B6" s="31">
+        <v>50</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="22">
+        <v>1990</v>
+      </c>
+      <c r="I6" s="35">
+        <v>50</v>
+      </c>
+      <c r="J6" s="41">
+        <v>0</v>
+      </c>
+      <c r="K6" s="41">
+        <v>0</v>
+      </c>
+      <c r="L6" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>1991</v>
+      </c>
+      <c r="B7" s="31">
+        <v>60</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0</v>
+      </c>
+      <c r="D7" s="29">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="H7" s="22">
+        <v>1991</v>
+      </c>
+      <c r="I7" s="35">
+        <v>60</v>
+      </c>
+      <c r="J7" s="41">
+        <v>0</v>
+      </c>
+      <c r="K7" s="41">
+        <v>0</v>
+      </c>
+      <c r="L7" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>1992</v>
+      </c>
+      <c r="B8" s="31">
+        <v>70</v>
+      </c>
+      <c r="C8" s="33">
+        <v>8</v>
+      </c>
+      <c r="D8" s="29">
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>1992</v>
+      </c>
+      <c r="I8" s="36">
+        <v>70</v>
+      </c>
+      <c r="J8" s="37">
+        <v>8</v>
+      </c>
+      <c r="K8" s="43">
+        <v>0</v>
+      </c>
+      <c r="L8" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>1993</v>
+      </c>
+      <c r="B9" s="31">
+        <v>80</v>
+      </c>
+      <c r="C9" s="31">
+        <v>16</v>
+      </c>
+      <c r="D9" s="29">
+        <v>0</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1993</v>
+      </c>
+      <c r="I9" s="36">
+        <v>80</v>
+      </c>
+      <c r="J9" s="38">
+        <v>16</v>
+      </c>
+      <c r="K9" s="43">
+        <v>0</v>
+      </c>
+      <c r="L9" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>1994</v>
+      </c>
+      <c r="B10" s="31">
+        <v>90</v>
+      </c>
+      <c r="C10" s="31">
+        <v>24</v>
+      </c>
+      <c r="D10" s="29">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22">
+        <v>1994</v>
+      </c>
+      <c r="I10" s="36">
+        <v>90</v>
+      </c>
+      <c r="J10" s="38">
+        <v>24</v>
+      </c>
+      <c r="K10" s="43">
+        <v>0</v>
+      </c>
+      <c r="L10" s="38">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <v>1995</v>
+      </c>
+      <c r="B11" s="31">
+        <v>100</v>
+      </c>
+      <c r="C11" s="31">
+        <v>32</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
+        <v>1995</v>
+      </c>
+      <c r="I11" s="36">
+        <v>100</v>
+      </c>
+      <c r="J11" s="38">
+        <v>32</v>
+      </c>
+      <c r="K11" s="43">
+        <v>0</v>
+      </c>
+      <c r="L11" s="38">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <v>1996</v>
+      </c>
+      <c r="B12" s="31">
+        <v>110</v>
+      </c>
+      <c r="C12" s="31">
+        <v>40</v>
+      </c>
+      <c r="D12" s="29">
+        <v>0</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="22">
+        <v>1996</v>
+      </c>
+      <c r="I12" s="36">
+        <v>110</v>
+      </c>
+      <c r="J12" s="38">
+        <v>40</v>
+      </c>
+      <c r="K12" s="43">
+        <v>0</v>
+      </c>
+      <c r="L12" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>1997</v>
+      </c>
+      <c r="B13" s="31">
+        <v>120</v>
+      </c>
+      <c r="C13" s="31">
+        <v>48</v>
+      </c>
+      <c r="D13" s="29">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
+        <v>1997</v>
+      </c>
+      <c r="I13" s="36">
+        <v>120</v>
+      </c>
+      <c r="J13" s="38">
+        <v>48</v>
+      </c>
+      <c r="K13" s="43">
+        <v>0</v>
+      </c>
+      <c r="L13" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="23">
+        <v>1998</v>
+      </c>
+      <c r="B14" s="31">
+        <v>130</v>
+      </c>
+      <c r="C14" s="31">
+        <v>56</v>
+      </c>
+      <c r="D14" s="33">
+        <v>6</v>
+      </c>
+      <c r="E14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22">
+        <v>1998</v>
+      </c>
+      <c r="I14" s="44">
+        <v>130</v>
+      </c>
+      <c r="J14" s="45">
+        <v>56</v>
+      </c>
+      <c r="K14" s="46">
+        <v>6</v>
+      </c>
+      <c r="L14" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="23">
+        <v>1999</v>
+      </c>
+      <c r="B15" s="31">
+        <v>140</v>
+      </c>
+      <c r="C15" s="31">
+        <v>64</v>
+      </c>
+      <c r="D15" s="31">
+        <v>12</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="H15" s="22">
+        <v>1999</v>
+      </c>
+      <c r="I15" s="44">
+        <v>140</v>
+      </c>
+      <c r="J15" s="45">
+        <v>64</v>
+      </c>
+      <c r="K15" s="45">
+        <v>12</v>
+      </c>
+      <c r="L15" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="23">
+        <v>2000</v>
+      </c>
+      <c r="B16" s="31">
+        <v>150</v>
+      </c>
+      <c r="C16" s="31">
+        <v>72</v>
+      </c>
+      <c r="D16" s="31">
+        <v>18</v>
+      </c>
+      <c r="E16" s="30">
+        <v>0</v>
+      </c>
+      <c r="H16" s="22">
+        <v>2000</v>
+      </c>
+      <c r="I16" s="44">
+        <v>150</v>
+      </c>
+      <c r="J16" s="45">
+        <v>72</v>
+      </c>
+      <c r="K16" s="45">
+        <v>18</v>
+      </c>
+      <c r="L16" s="45">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="23">
+        <v>2001</v>
+      </c>
+      <c r="B17" s="31">
+        <v>160</v>
+      </c>
+      <c r="C17" s="31">
+        <v>80</v>
+      </c>
+      <c r="D17" s="31">
+        <v>24</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0</v>
+      </c>
+      <c r="H17" s="22">
+        <v>2001</v>
+      </c>
+      <c r="I17" s="44">
+        <v>160</v>
+      </c>
+      <c r="J17" s="45">
+        <v>80</v>
+      </c>
+      <c r="K17" s="45">
+        <v>24</v>
+      </c>
+      <c r="L17" s="45">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="23">
+        <v>2002</v>
+      </c>
+      <c r="B18" s="31">
+        <v>170</v>
+      </c>
+      <c r="C18" s="31">
+        <v>88</v>
+      </c>
+      <c r="D18" s="31">
+        <v>30</v>
+      </c>
+      <c r="E18" s="30">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22">
+        <v>2002</v>
+      </c>
+      <c r="I18" s="44">
+        <v>170</v>
+      </c>
+      <c r="J18" s="45">
+        <v>88</v>
+      </c>
+      <c r="K18" s="45">
+        <v>30</v>
+      </c>
+      <c r="L18" s="45">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>2003</v>
+      </c>
+      <c r="B19" s="31">
+        <v>180</v>
+      </c>
+      <c r="C19" s="31">
+        <v>96</v>
+      </c>
+      <c r="D19" s="31">
+        <v>36</v>
+      </c>
+      <c r="E19" s="30">
+        <v>0</v>
+      </c>
+      <c r="H19" s="22">
+        <v>2003</v>
+      </c>
+      <c r="I19" s="44">
+        <v>180</v>
+      </c>
+      <c r="J19" s="45">
+        <v>96</v>
+      </c>
+      <c r="K19" s="45">
+        <v>36</v>
+      </c>
+      <c r="L19" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="23">
+        <v>2004</v>
+      </c>
+      <c r="B20" s="31">
+        <v>190</v>
+      </c>
+      <c r="C20" s="31">
+        <v>104</v>
+      </c>
+      <c r="D20" s="31">
+        <v>42</v>
+      </c>
+      <c r="E20" s="33">
+        <v>4</v>
+      </c>
+      <c r="H20" s="60">
+        <v>2004</v>
+      </c>
+      <c r="I20" s="61">
+        <v>190</v>
+      </c>
+      <c r="J20" s="62">
+        <v>104</v>
+      </c>
+      <c r="K20" s="62">
+        <v>42</v>
+      </c>
+      <c r="L20" s="63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="23">
+        <v>2005</v>
+      </c>
+      <c r="B21" s="31">
+        <v>200</v>
+      </c>
+      <c r="C21" s="31">
+        <v>112</v>
+      </c>
+      <c r="D21" s="31">
+        <v>48</v>
+      </c>
+      <c r="E21" s="31">
+        <v>8</v>
+      </c>
+      <c r="H21" s="60">
+        <v>2005</v>
+      </c>
+      <c r="I21" s="61">
+        <v>200</v>
+      </c>
+      <c r="J21" s="62">
+        <v>112</v>
+      </c>
+      <c r="K21" s="62">
+        <v>48</v>
+      </c>
+      <c r="L21" s="62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="23">
+        <v>2006</v>
+      </c>
+      <c r="B22" s="31">
+        <v>210</v>
+      </c>
+      <c r="C22" s="31">
+        <v>120</v>
+      </c>
+      <c r="D22" s="31">
+        <v>54</v>
+      </c>
+      <c r="E22" s="31">
+        <v>12</v>
+      </c>
+      <c r="H22" s="60">
+        <v>2006</v>
+      </c>
+      <c r="I22" s="61">
+        <v>210</v>
+      </c>
+      <c r="J22" s="62">
+        <v>120</v>
+      </c>
+      <c r="K22" s="62">
+        <v>54</v>
+      </c>
+      <c r="L22" s="62">
+        <v>12</v>
+      </c>
+      <c r="M22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="23">
+        <v>2007</v>
+      </c>
+      <c r="B23" s="31">
+        <v>220</v>
+      </c>
+      <c r="C23" s="31">
+        <v>128</v>
+      </c>
+      <c r="D23" s="31">
+        <v>60</v>
+      </c>
+      <c r="E23" s="31">
+        <v>16</v>
+      </c>
+      <c r="H23" s="60">
+        <v>2007</v>
+      </c>
+      <c r="I23" s="61">
+        <v>220</v>
+      </c>
+      <c r="J23" s="62">
+        <v>128</v>
+      </c>
+      <c r="K23" s="62">
+        <v>60</v>
+      </c>
+      <c r="L23" s="62">
+        <v>16</v>
+      </c>
+      <c r="M23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="23">
+        <v>2008</v>
+      </c>
+      <c r="B24" s="31">
+        <v>230</v>
+      </c>
+      <c r="C24" s="31">
+        <v>136</v>
+      </c>
+      <c r="D24" s="31">
+        <v>66</v>
+      </c>
+      <c r="E24" s="31">
+        <v>20</v>
+      </c>
+      <c r="H24" s="60">
+        <v>2008</v>
+      </c>
+      <c r="I24" s="61">
+        <v>230</v>
+      </c>
+      <c r="J24" s="62">
+        <v>136</v>
+      </c>
+      <c r="K24" s="62">
+        <v>66</v>
+      </c>
+      <c r="L24" s="62">
+        <v>20</v>
+      </c>
+      <c r="M24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>2009</v>
+      </c>
+      <c r="B25" s="32">
+        <v>240</v>
+      </c>
+      <c r="C25" s="32">
+        <v>144</v>
+      </c>
+      <c r="D25" s="32">
+        <v>72</v>
+      </c>
+      <c r="E25" s="32">
+        <v>24</v>
+      </c>
+      <c r="H25" s="60">
+        <v>2009</v>
+      </c>
+      <c r="I25" s="64">
+        <v>240</v>
+      </c>
+      <c r="J25" s="65">
+        <v>144</v>
+      </c>
+      <c r="K25" s="65">
+        <v>72</v>
+      </c>
+      <c r="L25" s="65">
+        <v>24</v>
+      </c>
+      <c r="M25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="49">
+        <f>AVERAGE(B2:B25)</f>
+        <v>125</v>
+      </c>
+      <c r="C26" s="50">
+        <f>AVERAGE(C8:C25)</f>
+        <v>76</v>
+      </c>
+      <c r="D26" s="50">
+        <f>AVERAGE(D14:D25)</f>
+        <v>39</v>
+      </c>
+      <c r="E26" s="51">
+        <f>AVERAGE(E20:E25)</f>
+        <v>14</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="57">
+        <f>AVERAGE(I2:I19)</f>
+        <v>95</v>
+      </c>
+      <c r="J26" s="55">
+        <f>AVERAGE(J8:J19)</f>
+        <v>52</v>
+      </c>
+      <c r="K26" s="56">
+        <f>AVERAGE(K14:K19)</f>
+        <v>21</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="53">
+        <f>AVERAGE(B2:B25,C8:C25,D14:D25,E20:E25)</f>
+        <v>82</v>
+      </c>
+      <c r="G27" t="s">
+        <v>127</v>
+      </c>
+      <c r="H27" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="I27" s="59">
+        <f>AVERAGE(I2:I19,J8:J19,K14:K19)</f>
+        <v>68.333333333333329</v>
+      </c>
+      <c r="M27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="47">
+        <f>AVERAGE(B26:E26)</f>
+        <v>63.5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>127</v>
+      </c>
+      <c r="H28" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="47">
+        <f>AVERAGE(I26:K26)</f>
+        <v>56</v>
+      </c>
+      <c r="M28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="48"/>
+      <c r="M29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8450D091-0CF3-4E4E-A0C2-7C7B515B5A3B}">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="23">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="31">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30">
+        <v>0</v>
+      </c>
+      <c r="E2" s="30">
+        <v>0</v>
+      </c>
+      <c r="F2" s="30">
+        <v>0</v>
+      </c>
+      <c r="G2" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="23">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="31">
+        <v>0</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
+        <v>0</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="23">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="31">
+        <v>0</v>
+      </c>
+      <c r="C4" s="29">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="23">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="31">
+        <v>0</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="23">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="31">
+        <v>0</v>
+      </c>
+      <c r="C6" s="29">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30">
+        <v>0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="29">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0</v>
+      </c>
+      <c r="G7" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="23">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0</v>
+      </c>
+      <c r="G8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="23">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="23">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="30">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="23">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="23">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD037F86-B1EB-D145-9FD4-1C559B132293}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -1694,13 +3391,13 @@
         <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1727,7 +3424,7 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1755,7 +3452,7 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1867,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1887,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1907,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1944,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1964,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1984,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -2021,7 +3718,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2041,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2078,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -2115,10 +3812,10 @@
         <v>8</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -2138,10 +3835,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2161,7 +3858,7 @@
         <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2181,7 +3878,7 @@
         <v>20</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -2201,7 +3898,7 @@
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -2227,41 +3924,41 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G29" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G30" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G31" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G32" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +3966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A91786-16AB-C24D-8ACB-8D903D480A4A}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -2608,7 +4305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E7CEF5-FDCD-594B-9FB3-DB278821F2A8}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -2862,7 +4559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A9CFAB-2F74-294C-962D-2EF94BD601E1}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -3044,7 +4741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0B6FC2-9930-E046-9895-0CFC4EF2A4F2}">
   <dimension ref="A1:D9"/>
   <sheetViews>

--- a/Code/Coding together/manual_att.xlsx
+++ b/Code/Coding together/manual_att.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Difference-in-Differences/Code/Coding together/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7EBC89-0C86-7D4C-8665-6B0F542E69F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4BBAF3-2B18-6D4C-AB14-2F9043159E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="50280" windowHeight="28300" activeTab="3" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="50280" windowHeight="28300" activeTab="4" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Not yet treated" sheetId="8" r:id="rId3"/>
     <sheet name="Castle" sheetId="9" r:id="rId4"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId5"/>
-    <sheet name="1986" sheetId="2" r:id="rId6"/>
-    <sheet name="1992" sheetId="3" r:id="rId7"/>
-    <sheet name="1998" sheetId="4" r:id="rId8"/>
-    <sheet name="2004" sheetId="5" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId6"/>
+    <sheet name="1986" sheetId="2" r:id="rId7"/>
+    <sheet name="1992" sheetId="3" r:id="rId8"/>
+    <sheet name="1998" sheetId="4" r:id="rId9"/>
+    <sheet name="2004" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="174">
   <si>
     <t>Treatment group</t>
   </si>
@@ -292,15 +293,9 @@
     <t>your own preferences.</t>
   </si>
   <si>
-    <t>ATT( e )</t>
-  </si>
-  <si>
     <t>Relative event time (number of years after a group was treated, regardless of the group</t>
   </si>
   <si>
-    <t>Years post-treatment</t>
-  </si>
-  <si>
     <t>Since we have in our possession in this example a "ATT building block" (ATT(g,t)), we can aggregate</t>
   </si>
   <si>
@@ -352,9 +347,6 @@
     <t>but I'm going to show that they in two DGP, they give you similar answers.</t>
   </si>
   <si>
-    <t>TWFE?</t>
-  </si>
-  <si>
     <t>\neq 7 unless assumptions hold</t>
   </si>
   <si>
@@ -509,6 +501,69 @@
   </si>
   <si>
     <t>differnet assumption). But they are the best we have, and they give us some comfort.</t>
+  </si>
+  <si>
+    <t>g Bin</t>
+  </si>
+  <si>
+    <t>l Lags and leads</t>
+  </si>
+  <si>
+    <t>Our building block will be the cohort specific ATT</t>
+  </si>
+  <si>
+    <t>ATT( l )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CATT(e,l) = ATT(g,t) it's just that we are now focused on </t>
+  </si>
+  <si>
+    <t>"relative event time" (l) and not calendar event time (t).</t>
+  </si>
+  <si>
+    <t>mu_l with TWFE</t>
+  </si>
+  <si>
+    <t>mu_l with SA</t>
+  </si>
+  <si>
+    <t>Group e</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>If treated</t>
+  </si>
+  <si>
+    <t>not treated</t>
+  </si>
+  <si>
+    <t>What does it mean to be "not treated" in an event study?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) it could mean that in that year, you aren't treated but you will get treated. </t>
+  </si>
+  <si>
+    <t>2) you never get treated.  In counterfactual, it's not that you got treated later or earlier --&gt; in counterfactual you were actually "never treated unit".</t>
+  </si>
+  <si>
+    <t>Y\infty</t>
+  </si>
+  <si>
+    <t>Observed Y compared to unobserved world where that group was never treated (ever).</t>
+  </si>
+  <si>
+    <t>Y - Y\infty</t>
+  </si>
+  <si>
+    <t>Treatment parameter</t>
+  </si>
+  <si>
+    <t>t+1</t>
+  </si>
+  <si>
+    <t>mu hat t+1</t>
   </si>
 </sst>
 </file>
@@ -546,7 +601,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,12 +640,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -622,6 +671,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -803,11 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -819,17 +882,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -843,25 +907,48 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1379,12 +1466,122 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0B6FC2-9930-E046-9895-0CFC4EF2A4F2}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2004</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>B2*4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2005</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C7" si="0">B3*4</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2006</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2007</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2008</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2009</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <f>AVERAGE(C2:C7)</f>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C21F52C-6D5D-F84D-AAE0-12B2E6D6DFD4}">
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection sqref="A1:E26"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1979,31 +2176,31 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="20"/>
+      <c r="A32" s="16"/>
       <c r="B32">
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
+      <c r="A33" s="16"/>
       <c r="B33">
         <v>0.11</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="20"/>
+      <c r="A34" s="16"/>
       <c r="B34">
         <v>0.128</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
+      <c r="A35" s="16"/>
       <c r="B35">
         <v>0.122</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
+      <c r="A36" s="17"/>
       <c r="B36">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -2033,950 +2230,950 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="23">
+      <c r="A2" s="20">
         <v>1986</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="28">
         <v>10</v>
       </c>
-      <c r="C2" s="29">
-        <v>0</v>
-      </c>
-      <c r="D2" s="29">
-        <v>0</v>
-      </c>
-      <c r="E2" s="30">
-        <v>0</v>
-      </c>
-      <c r="H2" s="22">
+      <c r="C2" s="26">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26">
+        <v>0</v>
+      </c>
+      <c r="E2" s="27">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
         <v>1986</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="31">
         <v>10</v>
       </c>
-      <c r="J2" s="39">
-        <v>0</v>
-      </c>
-      <c r="K2" s="39">
-        <v>0</v>
-      </c>
-      <c r="L2" s="40">
+      <c r="J2" s="36">
+        <v>0</v>
+      </c>
+      <c r="K2" s="36">
+        <v>0</v>
+      </c>
+      <c r="L2" s="37">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="23">
+      <c r="A3" s="20">
         <v>1987</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="28">
         <v>20</v>
       </c>
-      <c r="C3" s="29">
-        <v>0</v>
-      </c>
-      <c r="D3" s="29">
-        <v>0</v>
-      </c>
-      <c r="E3" s="30">
-        <v>0</v>
-      </c>
-      <c r="H3" s="22">
+      <c r="C3" s="26">
+        <v>0</v>
+      </c>
+      <c r="D3" s="26">
+        <v>0</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
         <v>1987</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="32">
         <v>20</v>
       </c>
-      <c r="J3" s="41">
-        <v>0</v>
-      </c>
-      <c r="K3" s="41">
-        <v>0</v>
-      </c>
-      <c r="L3" s="42">
+      <c r="J3" s="38">
+        <v>0</v>
+      </c>
+      <c r="K3" s="38">
+        <v>0</v>
+      </c>
+      <c r="L3" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="A4" s="20">
         <v>1988</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="28">
         <v>30</v>
       </c>
-      <c r="C4" s="29">
-        <v>0</v>
-      </c>
-      <c r="D4" s="29">
-        <v>0</v>
-      </c>
-      <c r="E4" s="30">
-        <v>0</v>
-      </c>
-      <c r="H4" s="22">
+      <c r="C4" s="26">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
         <v>1988</v>
       </c>
-      <c r="I4" s="35">
+      <c r="I4" s="32">
         <v>30</v>
       </c>
-      <c r="J4" s="41">
-        <v>0</v>
-      </c>
-      <c r="K4" s="41">
-        <v>0</v>
-      </c>
-      <c r="L4" s="42">
+      <c r="J4" s="38">
+        <v>0</v>
+      </c>
+      <c r="K4" s="38">
+        <v>0</v>
+      </c>
+      <c r="L4" s="39">
         <v>0</v>
       </c>
       <c r="M4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>1989</v>
+      </c>
+      <c r="B5" s="28">
+        <v>40</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1989</v>
+      </c>
+      <c r="I5" s="32">
+        <v>40</v>
+      </c>
+      <c r="J5" s="38">
+        <v>0</v>
+      </c>
+      <c r="K5" s="38">
+        <v>0</v>
+      </c>
+      <c r="L5" s="39">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>1990</v>
+      </c>
+      <c r="B6" s="28">
+        <v>50</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>1990</v>
+      </c>
+      <c r="I6" s="32">
+        <v>50</v>
+      </c>
+      <c r="J6" s="38">
+        <v>0</v>
+      </c>
+      <c r="K6" s="38">
+        <v>0</v>
+      </c>
+      <c r="L6" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>1991</v>
+      </c>
+      <c r="B7" s="28">
+        <v>60</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>1991</v>
+      </c>
+      <c r="I7" s="32">
+        <v>60</v>
+      </c>
+      <c r="J7" s="38">
+        <v>0</v>
+      </c>
+      <c r="K7" s="38">
+        <v>0</v>
+      </c>
+      <c r="L7" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="20">
+        <v>1992</v>
+      </c>
+      <c r="B8" s="28">
+        <v>70</v>
+      </c>
+      <c r="C8" s="30">
+        <v>8</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>1992</v>
+      </c>
+      <c r="I8" s="33">
+        <v>70</v>
+      </c>
+      <c r="J8" s="34">
+        <v>8</v>
+      </c>
+      <c r="K8" s="40">
+        <v>0</v>
+      </c>
+      <c r="L8" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
+        <v>1993</v>
+      </c>
+      <c r="B9" s="28">
+        <v>80</v>
+      </c>
+      <c r="C9" s="28">
+        <v>16</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1993</v>
+      </c>
+      <c r="I9" s="33">
+        <v>80</v>
+      </c>
+      <c r="J9" s="35">
+        <v>16</v>
+      </c>
+      <c r="K9" s="40">
+        <v>0</v>
+      </c>
+      <c r="L9" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>1994</v>
+      </c>
+      <c r="B10" s="28">
+        <v>90</v>
+      </c>
+      <c r="C10" s="28">
+        <v>24</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1994</v>
+      </c>
+      <c r="I10" s="33">
+        <v>90</v>
+      </c>
+      <c r="J10" s="35">
+        <v>24</v>
+      </c>
+      <c r="K10" s="40">
+        <v>0</v>
+      </c>
+      <c r="L10" s="35">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
+        <v>1995</v>
+      </c>
+      <c r="B11" s="28">
+        <v>100</v>
+      </c>
+      <c r="C11" s="28">
+        <v>32</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="27">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1995</v>
+      </c>
+      <c r="I11" s="33">
+        <v>100</v>
+      </c>
+      <c r="J11" s="35">
+        <v>32</v>
+      </c>
+      <c r="K11" s="40">
+        <v>0</v>
+      </c>
+      <c r="L11" s="35">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
-        <v>1989</v>
-      </c>
-      <c r="B5" s="31">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
+        <v>1996</v>
+      </c>
+      <c r="B12" s="28">
+        <v>110</v>
+      </c>
+      <c r="C12" s="28">
         <v>40</v>
       </c>
-      <c r="C5" s="29">
-        <v>0</v>
-      </c>
-      <c r="D5" s="29">
-        <v>0</v>
-      </c>
-      <c r="E5" s="30">
-        <v>0</v>
-      </c>
-      <c r="H5" s="22">
-        <v>1989</v>
-      </c>
-      <c r="I5" s="35">
+      <c r="D12" s="26">
+        <v>0</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1996</v>
+      </c>
+      <c r="I12" s="33">
+        <v>110</v>
+      </c>
+      <c r="J12" s="35">
         <v>40</v>
       </c>
-      <c r="J5" s="41">
-        <v>0</v>
-      </c>
-      <c r="K5" s="41">
-        <v>0</v>
-      </c>
-      <c r="L5" s="42">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="K12" s="40">
+        <v>0</v>
+      </c>
+      <c r="L12" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>1997</v>
+      </c>
+      <c r="B13" s="28">
+        <v>120</v>
+      </c>
+      <c r="C13" s="28">
+        <v>48</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1997</v>
+      </c>
+      <c r="I13" s="33">
+        <v>120</v>
+      </c>
+      <c r="J13" s="35">
+        <v>48</v>
+      </c>
+      <c r="K13" s="40">
+        <v>0</v>
+      </c>
+      <c r="L13" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
+        <v>1998</v>
+      </c>
+      <c r="B14" s="28">
+        <v>130</v>
+      </c>
+      <c r="C14" s="28">
+        <v>56</v>
+      </c>
+      <c r="D14" s="30">
+        <v>6</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1998</v>
+      </c>
+      <c r="I14" s="41">
+        <v>130</v>
+      </c>
+      <c r="J14" s="42">
+        <v>56</v>
+      </c>
+      <c r="K14" s="43">
+        <v>6</v>
+      </c>
+      <c r="L14" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
+        <v>1999</v>
+      </c>
+      <c r="B15" s="28">
+        <v>140</v>
+      </c>
+      <c r="C15" s="28">
+        <v>64</v>
+      </c>
+      <c r="D15" s="28">
+        <v>12</v>
+      </c>
+      <c r="E15" s="27">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>1999</v>
+      </c>
+      <c r="I15" s="41">
+        <v>140</v>
+      </c>
+      <c r="J15" s="42">
+        <v>64</v>
+      </c>
+      <c r="K15" s="42">
+        <v>12</v>
+      </c>
+      <c r="L15" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
+        <v>2000</v>
+      </c>
+      <c r="B16" s="28">
+        <v>150</v>
+      </c>
+      <c r="C16" s="28">
+        <v>72</v>
+      </c>
+      <c r="D16" s="28">
+        <v>18</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>2000</v>
+      </c>
+      <c r="I16" s="41">
+        <v>150</v>
+      </c>
+      <c r="J16" s="42">
+        <v>72</v>
+      </c>
+      <c r="K16" s="42">
+        <v>18</v>
+      </c>
+      <c r="L16" s="42">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
-        <v>1990</v>
-      </c>
-      <c r="B6" s="31">
-        <v>50</v>
-      </c>
-      <c r="C6" s="29">
-        <v>0</v>
-      </c>
-      <c r="D6" s="29">
-        <v>0</v>
-      </c>
-      <c r="E6" s="30">
-        <v>0</v>
-      </c>
-      <c r="H6" s="22">
-        <v>1990</v>
-      </c>
-      <c r="I6" s="35">
-        <v>50</v>
-      </c>
-      <c r="J6" s="41">
-        <v>0</v>
-      </c>
-      <c r="K6" s="41">
-        <v>0</v>
-      </c>
-      <c r="L6" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
-        <v>1991</v>
-      </c>
-      <c r="B7" s="31">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="20">
+        <v>2001</v>
+      </c>
+      <c r="B17" s="28">
+        <v>160</v>
+      </c>
+      <c r="C17" s="28">
+        <v>80</v>
+      </c>
+      <c r="D17" s="28">
+        <v>24</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>2001</v>
+      </c>
+      <c r="I17" s="41">
+        <v>160</v>
+      </c>
+      <c r="J17" s="42">
+        <v>80</v>
+      </c>
+      <c r="K17" s="42">
+        <v>24</v>
+      </c>
+      <c r="L17" s="42">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="20">
+        <v>2002</v>
+      </c>
+      <c r="B18" s="28">
+        <v>170</v>
+      </c>
+      <c r="C18" s="28">
+        <v>88</v>
+      </c>
+      <c r="D18" s="28">
+        <v>30</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
+        <v>2002</v>
+      </c>
+      <c r="I18" s="41">
+        <v>170</v>
+      </c>
+      <c r="J18" s="42">
+        <v>88</v>
+      </c>
+      <c r="K18" s="42">
+        <v>30</v>
+      </c>
+      <c r="L18" s="42">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20">
+        <v>2003</v>
+      </c>
+      <c r="B19" s="28">
+        <v>180</v>
+      </c>
+      <c r="C19" s="28">
+        <v>96</v>
+      </c>
+      <c r="D19" s="28">
+        <v>36</v>
+      </c>
+      <c r="E19" s="27">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>2003</v>
+      </c>
+      <c r="I19" s="41">
+        <v>180</v>
+      </c>
+      <c r="J19" s="42">
+        <v>96</v>
+      </c>
+      <c r="K19" s="42">
+        <v>36</v>
+      </c>
+      <c r="L19" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="20">
+        <v>2004</v>
+      </c>
+      <c r="B20" s="28">
+        <v>190</v>
+      </c>
+      <c r="C20" s="28">
+        <v>104</v>
+      </c>
+      <c r="D20" s="28">
+        <v>42</v>
+      </c>
+      <c r="E20" s="30">
+        <v>4</v>
+      </c>
+      <c r="H20" s="57">
+        <v>2004</v>
+      </c>
+      <c r="I20" s="58">
+        <v>190</v>
+      </c>
+      <c r="J20" s="59">
+        <v>104</v>
+      </c>
+      <c r="K20" s="59">
+        <v>42</v>
+      </c>
+      <c r="L20" s="60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>2005</v>
+      </c>
+      <c r="B21" s="28">
+        <v>200</v>
+      </c>
+      <c r="C21" s="28">
+        <v>112</v>
+      </c>
+      <c r="D21" s="28">
+        <v>48</v>
+      </c>
+      <c r="E21" s="28">
+        <v>8</v>
+      </c>
+      <c r="H21" s="57">
+        <v>2005</v>
+      </c>
+      <c r="I21" s="58">
+        <v>200</v>
+      </c>
+      <c r="J21" s="59">
+        <v>112</v>
+      </c>
+      <c r="K21" s="59">
+        <v>48</v>
+      </c>
+      <c r="L21" s="59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="20">
+        <v>2006</v>
+      </c>
+      <c r="B22" s="28">
+        <v>210</v>
+      </c>
+      <c r="C22" s="28">
+        <v>120</v>
+      </c>
+      <c r="D22" s="28">
+        <v>54</v>
+      </c>
+      <c r="E22" s="28">
+        <v>12</v>
+      </c>
+      <c r="H22" s="57">
+        <v>2006</v>
+      </c>
+      <c r="I22" s="58">
+        <v>210</v>
+      </c>
+      <c r="J22" s="59">
+        <v>120</v>
+      </c>
+      <c r="K22" s="59">
+        <v>54</v>
+      </c>
+      <c r="L22" s="59">
+        <v>12</v>
+      </c>
+      <c r="M22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
+        <v>2007</v>
+      </c>
+      <c r="B23" s="28">
+        <v>220</v>
+      </c>
+      <c r="C23" s="28">
+        <v>128</v>
+      </c>
+      <c r="D23" s="28">
         <v>60</v>
       </c>
-      <c r="C7" s="29">
-        <v>0</v>
-      </c>
-      <c r="D7" s="29">
-        <v>0</v>
-      </c>
-      <c r="E7" s="30">
-        <v>0</v>
-      </c>
-      <c r="H7" s="22">
-        <v>1991</v>
-      </c>
-      <c r="I7" s="35">
+      <c r="E23" s="28">
+        <v>16</v>
+      </c>
+      <c r="H23" s="57">
+        <v>2007</v>
+      </c>
+      <c r="I23" s="58">
+        <v>220</v>
+      </c>
+      <c r="J23" s="59">
+        <v>128</v>
+      </c>
+      <c r="K23" s="59">
         <v>60</v>
       </c>
-      <c r="J7" s="41">
-        <v>0</v>
-      </c>
-      <c r="K7" s="41">
-        <v>0</v>
-      </c>
-      <c r="L7" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
-        <v>1992</v>
-      </c>
-      <c r="B8" s="31">
-        <v>70</v>
-      </c>
-      <c r="C8" s="33">
-        <v>8</v>
-      </c>
-      <c r="D8" s="29">
-        <v>0</v>
-      </c>
-      <c r="E8" s="30">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
-        <v>1992</v>
-      </c>
-      <c r="I8" s="36">
-        <v>70</v>
-      </c>
-      <c r="J8" s="37">
-        <v>8</v>
-      </c>
-      <c r="K8" s="43">
-        <v>0</v>
-      </c>
-      <c r="L8" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
-        <v>1993</v>
-      </c>
-      <c r="B9" s="31">
-        <v>80</v>
-      </c>
-      <c r="C9" s="31">
+      <c r="L23" s="59">
         <v>16</v>
       </c>
-      <c r="D9" s="29">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
-        <v>0</v>
-      </c>
-      <c r="H9" s="22">
-        <v>1993</v>
-      </c>
-      <c r="I9" s="36">
-        <v>80</v>
-      </c>
-      <c r="J9" s="38">
-        <v>16</v>
-      </c>
-      <c r="K9" s="43">
-        <v>0</v>
-      </c>
-      <c r="L9" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
-        <v>1994</v>
-      </c>
-      <c r="B10" s="31">
-        <v>90</v>
-      </c>
-      <c r="C10" s="31">
+      <c r="M23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="20">
+        <v>2008</v>
+      </c>
+      <c r="B24" s="28">
+        <v>230</v>
+      </c>
+      <c r="C24" s="28">
+        <v>136</v>
+      </c>
+      <c r="D24" s="28">
+        <v>66</v>
+      </c>
+      <c r="E24" s="28">
+        <v>20</v>
+      </c>
+      <c r="H24" s="57">
+        <v>2008</v>
+      </c>
+      <c r="I24" s="58">
+        <v>230</v>
+      </c>
+      <c r="J24" s="59">
+        <v>136</v>
+      </c>
+      <c r="K24" s="59">
+        <v>66</v>
+      </c>
+      <c r="L24" s="59">
+        <v>20</v>
+      </c>
+      <c r="M24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="20">
+        <v>2009</v>
+      </c>
+      <c r="B25" s="29">
+        <v>240</v>
+      </c>
+      <c r="C25" s="29">
+        <v>144</v>
+      </c>
+      <c r="D25" s="29">
+        <v>72</v>
+      </c>
+      <c r="E25" s="29">
         <v>24</v>
       </c>
-      <c r="D10" s="29">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <v>0</v>
-      </c>
-      <c r="H10" s="22">
-        <v>1994</v>
-      </c>
-      <c r="I10" s="36">
-        <v>90</v>
-      </c>
-      <c r="J10" s="38">
+      <c r="H25" s="57">
+        <v>2009</v>
+      </c>
+      <c r="I25" s="61">
+        <v>240</v>
+      </c>
+      <c r="J25" s="62">
+        <v>144</v>
+      </c>
+      <c r="K25" s="62">
+        <v>72</v>
+      </c>
+      <c r="L25" s="62">
         <v>24</v>
       </c>
-      <c r="K10" s="43">
-        <v>0</v>
-      </c>
-      <c r="L10" s="38">
-        <v>0</v>
-      </c>
-      <c r="M10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
-        <v>1995</v>
-      </c>
-      <c r="B11" s="31">
-        <v>100</v>
-      </c>
-      <c r="C11" s="31">
-        <v>32</v>
-      </c>
-      <c r="D11" s="29">
-        <v>0</v>
-      </c>
-      <c r="E11" s="30">
-        <v>0</v>
-      </c>
-      <c r="H11" s="22">
-        <v>1995</v>
-      </c>
-      <c r="I11" s="36">
-        <v>100</v>
-      </c>
-      <c r="J11" s="38">
-        <v>32</v>
-      </c>
-      <c r="K11" s="43">
-        <v>0</v>
-      </c>
-      <c r="L11" s="38">
-        <v>0</v>
-      </c>
-      <c r="M11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
-        <v>1996</v>
-      </c>
-      <c r="B12" s="31">
-        <v>110</v>
-      </c>
-      <c r="C12" s="31">
-        <v>40</v>
-      </c>
-      <c r="D12" s="29">
-        <v>0</v>
-      </c>
-      <c r="E12" s="30">
-        <v>0</v>
-      </c>
-      <c r="H12" s="22">
-        <v>1996</v>
-      </c>
-      <c r="I12" s="36">
-        <v>110</v>
-      </c>
-      <c r="J12" s="38">
-        <v>40</v>
-      </c>
-      <c r="K12" s="43">
-        <v>0</v>
-      </c>
-      <c r="L12" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
-        <v>1997</v>
-      </c>
-      <c r="B13" s="31">
-        <v>120</v>
-      </c>
-      <c r="C13" s="31">
-        <v>48</v>
-      </c>
-      <c r="D13" s="29">
-        <v>0</v>
-      </c>
-      <c r="E13" s="30">
-        <v>0</v>
-      </c>
-      <c r="H13" s="22">
-        <v>1997</v>
-      </c>
-      <c r="I13" s="36">
-        <v>120</v>
-      </c>
-      <c r="J13" s="38">
-        <v>48</v>
-      </c>
-      <c r="K13" s="43">
-        <v>0</v>
-      </c>
-      <c r="L13" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
-        <v>1998</v>
-      </c>
-      <c r="B14" s="31">
-        <v>130</v>
-      </c>
-      <c r="C14" s="31">
-        <v>56</v>
-      </c>
-      <c r="D14" s="33">
-        <v>6</v>
-      </c>
-      <c r="E14" s="30">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
-        <v>1998</v>
-      </c>
-      <c r="I14" s="44">
-        <v>130</v>
-      </c>
-      <c r="J14" s="45">
-        <v>56</v>
-      </c>
-      <c r="K14" s="46">
-        <v>6</v>
-      </c>
-      <c r="L14" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
-        <v>1999</v>
-      </c>
-      <c r="B15" s="31">
-        <v>140</v>
-      </c>
-      <c r="C15" s="31">
-        <v>64</v>
-      </c>
-      <c r="D15" s="31">
-        <v>12</v>
-      </c>
-      <c r="E15" s="30">
-        <v>0</v>
-      </c>
-      <c r="H15" s="22">
-        <v>1999</v>
-      </c>
-      <c r="I15" s="44">
-        <v>140</v>
-      </c>
-      <c r="J15" s="45">
-        <v>64</v>
-      </c>
-      <c r="K15" s="45">
-        <v>12</v>
-      </c>
-      <c r="L15" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
-        <v>2000</v>
-      </c>
-      <c r="B16" s="31">
-        <v>150</v>
-      </c>
-      <c r="C16" s="31">
-        <v>72</v>
-      </c>
-      <c r="D16" s="31">
-        <v>18</v>
-      </c>
-      <c r="E16" s="30">
-        <v>0</v>
-      </c>
-      <c r="H16" s="22">
-        <v>2000</v>
-      </c>
-      <c r="I16" s="44">
-        <v>150</v>
-      </c>
-      <c r="J16" s="45">
-        <v>72</v>
-      </c>
-      <c r="K16" s="45">
-        <v>18</v>
-      </c>
-      <c r="L16" s="45">
-        <v>0</v>
-      </c>
-      <c r="M16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
-        <v>2001</v>
-      </c>
-      <c r="B17" s="31">
-        <v>160</v>
-      </c>
-      <c r="C17" s="31">
-        <v>80</v>
-      </c>
-      <c r="D17" s="31">
-        <v>24</v>
-      </c>
-      <c r="E17" s="30">
-        <v>0</v>
-      </c>
-      <c r="H17" s="22">
-        <v>2001</v>
-      </c>
-      <c r="I17" s="44">
-        <v>160</v>
-      </c>
-      <c r="J17" s="45">
-        <v>80</v>
-      </c>
-      <c r="K17" s="45">
-        <v>24</v>
-      </c>
-      <c r="L17" s="45">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
-        <v>2002</v>
-      </c>
-      <c r="B18" s="31">
-        <v>170</v>
-      </c>
-      <c r="C18" s="31">
-        <v>88</v>
-      </c>
-      <c r="D18" s="31">
-        <v>30</v>
-      </c>
-      <c r="E18" s="30">
-        <v>0</v>
-      </c>
-      <c r="H18" s="22">
-        <v>2002</v>
-      </c>
-      <c r="I18" s="44">
-        <v>170</v>
-      </c>
-      <c r="J18" s="45">
-        <v>88</v>
-      </c>
-      <c r="K18" s="45">
-        <v>30</v>
-      </c>
-      <c r="L18" s="45">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23">
-        <v>2003</v>
-      </c>
-      <c r="B19" s="31">
-        <v>180</v>
-      </c>
-      <c r="C19" s="31">
-        <v>96</v>
-      </c>
-      <c r="D19" s="31">
-        <v>36</v>
-      </c>
-      <c r="E19" s="30">
-        <v>0</v>
-      </c>
-      <c r="H19" s="22">
-        <v>2003</v>
-      </c>
-      <c r="I19" s="44">
-        <v>180</v>
-      </c>
-      <c r="J19" s="45">
-        <v>96</v>
-      </c>
-      <c r="K19" s="45">
-        <v>36</v>
-      </c>
-      <c r="L19" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
-        <v>2004</v>
-      </c>
-      <c r="B20" s="31">
-        <v>190</v>
-      </c>
-      <c r="C20" s="31">
-        <v>104</v>
-      </c>
-      <c r="D20" s="31">
-        <v>42</v>
-      </c>
-      <c r="E20" s="33">
-        <v>4</v>
-      </c>
-      <c r="H20" s="60">
-        <v>2004</v>
-      </c>
-      <c r="I20" s="61">
-        <v>190</v>
-      </c>
-      <c r="J20" s="62">
-        <v>104</v>
-      </c>
-      <c r="K20" s="62">
-        <v>42</v>
-      </c>
-      <c r="L20" s="63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
-        <v>2005</v>
-      </c>
-      <c r="B21" s="31">
-        <v>200</v>
-      </c>
-      <c r="C21" s="31">
-        <v>112</v>
-      </c>
-      <c r="D21" s="31">
-        <v>48</v>
-      </c>
-      <c r="E21" s="31">
-        <v>8</v>
-      </c>
-      <c r="H21" s="60">
-        <v>2005</v>
-      </c>
-      <c r="I21" s="61">
-        <v>200</v>
-      </c>
-      <c r="J21" s="62">
-        <v>112</v>
-      </c>
-      <c r="K21" s="62">
-        <v>48</v>
-      </c>
-      <c r="L21" s="62">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
-        <v>2006</v>
-      </c>
-      <c r="B22" s="31">
-        <v>210</v>
-      </c>
-      <c r="C22" s="31">
-        <v>120</v>
-      </c>
-      <c r="D22" s="31">
-        <v>54</v>
-      </c>
-      <c r="E22" s="31">
-        <v>12</v>
-      </c>
-      <c r="H22" s="60">
-        <v>2006</v>
-      </c>
-      <c r="I22" s="61">
-        <v>210</v>
-      </c>
-      <c r="J22" s="62">
-        <v>120</v>
-      </c>
-      <c r="K22" s="62">
-        <v>54</v>
-      </c>
-      <c r="L22" s="62">
-        <v>12</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="M25" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
-        <v>2007</v>
-      </c>
-      <c r="B23" s="31">
-        <v>220</v>
-      </c>
-      <c r="C23" s="31">
-        <v>128</v>
-      </c>
-      <c r="D23" s="31">
-        <v>60</v>
-      </c>
-      <c r="E23" s="31">
-        <v>16</v>
-      </c>
-      <c r="H23" s="60">
-        <v>2007</v>
-      </c>
-      <c r="I23" s="61">
-        <v>220</v>
-      </c>
-      <c r="J23" s="62">
-        <v>128</v>
-      </c>
-      <c r="K23" s="62">
-        <v>60</v>
-      </c>
-      <c r="L23" s="62">
-        <v>16</v>
-      </c>
-      <c r="M23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
-        <v>2008</v>
-      </c>
-      <c r="B24" s="31">
-        <v>230</v>
-      </c>
-      <c r="C24" s="31">
-        <v>136</v>
-      </c>
-      <c r="D24" s="31">
-        <v>66</v>
-      </c>
-      <c r="E24" s="31">
-        <v>20</v>
-      </c>
-      <c r="H24" s="60">
-        <v>2008</v>
-      </c>
-      <c r="I24" s="61">
-        <v>230</v>
-      </c>
-      <c r="J24" s="62">
-        <v>136</v>
-      </c>
-      <c r="K24" s="62">
-        <v>66</v>
-      </c>
-      <c r="L24" s="62">
-        <v>20</v>
-      </c>
-      <c r="M24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
-        <v>2009</v>
-      </c>
-      <c r="B25" s="32">
-        <v>240</v>
-      </c>
-      <c r="C25" s="32">
-        <v>144</v>
-      </c>
-      <c r="D25" s="32">
-        <v>72</v>
-      </c>
-      <c r="E25" s="32">
-        <v>24</v>
-      </c>
-      <c r="H25" s="60">
-        <v>2009</v>
-      </c>
-      <c r="I25" s="64">
-        <v>240</v>
-      </c>
-      <c r="J25" s="65">
-        <v>144</v>
-      </c>
-      <c r="K25" s="65">
-        <v>72</v>
-      </c>
-      <c r="L25" s="65">
-        <v>24</v>
-      </c>
-      <c r="M25" t="s">
-        <v>121</v>
-      </c>
-    </row>
     <row r="26" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="49">
+      <c r="B26" s="46">
         <f>AVERAGE(B2:B25)</f>
         <v>125</v>
       </c>
-      <c r="C26" s="50">
+      <c r="C26" s="47">
         <f>AVERAGE(C8:C25)</f>
         <v>76</v>
       </c>
-      <c r="D26" s="50">
+      <c r="D26" s="47">
         <f>AVERAGE(D14:D25)</f>
         <v>39</v>
       </c>
-      <c r="E26" s="51">
+      <c r="E26" s="48">
         <f>AVERAGE(E20:E25)</f>
         <v>14</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="54">
         <f>AVERAGE(I2:I19)</f>
         <v>95</v>
       </c>
-      <c r="J26" s="55">
+      <c r="J26" s="52">
         <f>AVERAGE(J8:J19)</f>
         <v>52</v>
       </c>
-      <c r="K26" s="56">
+      <c r="K26" s="53">
         <f>AVERAGE(K14:K19)</f>
         <v>21</v>
       </c>
-      <c r="L26" s="22" t="s">
-        <v>128</v>
+      <c r="L26" s="18" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="53">
+      <c r="A27" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="50">
         <f>AVERAGE(B2:B25,C8:C25,D14:D25,E20:E25)</f>
         <v>82</v>
       </c>
       <c r="G27" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="I27" s="59">
+        <v>124</v>
+      </c>
+      <c r="H27" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="I27" s="56">
         <f>AVERAGE(I2:I19,J8:J19,K14:K19)</f>
         <v>68.333333333333329</v>
       </c>
       <c r="M27" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28" s="47">
+      <c r="A28" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="44">
         <f>AVERAGE(B26:E26)</f>
         <v>63.5</v>
       </c>
       <c r="G28" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="I28" s="47">
+        <v>124</v>
+      </c>
+      <c r="H28" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="44">
         <f>AVERAGE(I26:K26)</f>
         <v>56</v>
       </c>
       <c r="M28" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
+      <c r="A29" s="45"/>
       <c r="M29" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2988,371 +3185,371 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8450D091-0CF3-4E4E-A0C2-7C7B515B5A3B}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="F1" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="G1" s="21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="20">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="28">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26">
+        <v>0</v>
+      </c>
+      <c r="D2" s="27">
+        <v>0</v>
+      </c>
+      <c r="E2" s="27">
+        <v>0</v>
+      </c>
+      <c r="F2" s="27">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="28">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0</v>
+      </c>
+      <c r="D3" s="27">
+        <v>0</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="20">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="28">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="20">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="28">
+        <v>0</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="27">
+        <v>0</v>
+      </c>
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="20">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="28">
+        <v>0</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="27">
+        <v>0</v>
+      </c>
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="23">
-        <v>2000</v>
-      </c>
-      <c r="B2" s="31">
-        <v>0</v>
-      </c>
-      <c r="C2" s="29">
-        <v>0</v>
-      </c>
-      <c r="D2" s="30">
-        <v>0</v>
-      </c>
-      <c r="E2" s="30">
-        <v>0</v>
-      </c>
-      <c r="F2" s="30">
-        <v>0</v>
-      </c>
-      <c r="G2" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="23">
-        <v>2001</v>
-      </c>
-      <c r="B3" s="31">
-        <v>0</v>
-      </c>
-      <c r="C3" s="29">
-        <v>0</v>
-      </c>
-      <c r="D3" s="30">
-        <v>0</v>
-      </c>
-      <c r="E3" s="30">
-        <v>0</v>
-      </c>
-      <c r="F3" s="30">
-        <v>0</v>
-      </c>
-      <c r="G3" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="31">
-        <v>0</v>
-      </c>
-      <c r="C4" s="29">
-        <v>0</v>
-      </c>
-      <c r="D4" s="30">
-        <v>0</v>
-      </c>
-      <c r="E4" s="30">
-        <v>0</v>
-      </c>
-      <c r="F4" s="30">
-        <v>0</v>
-      </c>
-      <c r="G4" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="31">
-        <v>0</v>
-      </c>
-      <c r="C5" s="29">
-        <v>0</v>
-      </c>
-      <c r="D5" s="30">
-        <v>0</v>
-      </c>
-      <c r="E5" s="30">
-        <v>0</v>
-      </c>
-      <c r="F5" s="30">
-        <v>0</v>
-      </c>
-      <c r="G5" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="31">
-        <v>0</v>
-      </c>
-      <c r="C6" s="29">
-        <v>0</v>
-      </c>
-      <c r="D6" s="30">
-        <v>0</v>
-      </c>
-      <c r="E6" s="30">
-        <v>0</v>
-      </c>
-      <c r="F6" s="30">
-        <v>0</v>
-      </c>
-      <c r="G6" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="29">
-        <v>0</v>
-      </c>
-      <c r="D7" s="30">
-        <v>0</v>
-      </c>
-      <c r="E7" s="30">
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
-        <v>0</v>
-      </c>
-      <c r="G7" s="29">
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27">
+        <v>0</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
+      <c r="A8" s="20">
         <v>2006</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="30">
-        <v>0</v>
-      </c>
-      <c r="E8" s="30">
-        <v>0</v>
-      </c>
-      <c r="F8" s="30">
-        <v>0</v>
-      </c>
-      <c r="G8" s="29">
+      <c r="B8" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="27">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
+        <v>0</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
+      <c r="A9" s="20">
         <v>2007</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="E9" s="30">
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
-        <v>0</v>
-      </c>
-      <c r="G9" s="29">
+      <c r="B9" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+      <c r="A10" s="20">
         <v>2008</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E10" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0</v>
-      </c>
-      <c r="G10" s="29">
+      <c r="B10" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0</v>
+      </c>
+      <c r="G10" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
+      <c r="A11" s="20">
         <v>2009</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="F11" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="29">
+      <c r="B11" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="A12" s="20">
         <v>2010</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="29">
+      <c r="B12" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3362,19 +3559,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD037F86-B1EB-D145-9FD4-1C559B132293}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="18.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -3390,21 +3589,30 @@
       <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>85</v>
+      <c r="G1" s="63" t="s">
+        <v>153</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1986</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="72">
         <v>10</v>
       </c>
       <c r="C2">
@@ -3416,22 +3624,28 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="64">
+        <v>1</v>
+      </c>
+      <c r="H2" s="65">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <f>AVERAGE(B2,C8,D14,E20)</f>
         <v>7</v>
       </c>
-      <c r="I2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1987</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="73">
         <v>20</v>
       </c>
       <c r="C3">
@@ -3443,23 +3657,32 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="G3" s="18" t="str">
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="66">
+        <v>1</v>
+      </c>
+      <c r="H3" s="67" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <f>AVERAGE(B3,C9,D15,E21)</f>
         <v>14</v>
       </c>
-      <c r="I3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1988</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="74">
         <v>30</v>
       </c>
       <c r="C4">
@@ -3471,20 +3694,23 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="G4" s="18" t="str">
+      <c r="G4" s="68">
+        <v>2</v>
+      </c>
+      <c r="H4" s="69" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f>AVERAGE(B4,C10,D16,E22)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1989</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="74">
         <v>40</v>
       </c>
       <c r="C5">
@@ -3496,20 +3722,23 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="G5" s="18" t="str">
+      <c r="G5" s="70">
+        <v>2</v>
+      </c>
+      <c r="H5" s="71" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f>AVERAGE(B5,C11,D17,E23)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1990</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="13">
         <v>50</v>
       </c>
       <c r="C6">
@@ -3521,23 +3750,26 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="G6" s="18" t="str">
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="14" t="str">
         <f>"+4"</f>
         <v>+4</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f>AVERAGE(B6,C12,D18,E24)</f>
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1991</v>
       </c>
       <c r="B7" s="10">
         <v>60</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="75">
         <v>0</v>
       </c>
       <c r="D7">
@@ -3547,14 +3779,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1992</v>
       </c>
       <c r="B8" s="10">
         <v>70</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="72">
         <v>8</v>
       </c>
       <c r="D8">
@@ -3563,18 +3795,18 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1993</v>
       </c>
       <c r="B9" s="10">
         <v>80</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="73">
         <v>16</v>
       </c>
       <c r="D9">
@@ -3583,18 +3815,21 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1994</v>
       </c>
       <c r="B10" s="10">
         <v>90</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="74">
         <v>24</v>
       </c>
       <c r="D10">
@@ -3603,18 +3838,18 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="G10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1995</v>
       </c>
       <c r="B11" s="10">
         <v>100</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="74">
         <v>32</v>
       </c>
       <c r="D11">
@@ -3624,14 +3859,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1996</v>
       </c>
       <c r="B12" s="10">
         <v>110</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="13">
         <v>40</v>
       </c>
       <c r="D12">
@@ -3640,11 +3875,11 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="G12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1997</v>
       </c>
@@ -3654,17 +3889,17 @@
       <c r="C13" s="10">
         <v>48</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="75">
         <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1998</v>
       </c>
@@ -3674,17 +3909,17 @@
       <c r="C14" s="10">
         <v>56</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="72">
         <v>6</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1999</v>
       </c>
@@ -3694,14 +3929,17 @@
       <c r="C15" s="10">
         <v>64</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="73">
         <v>12</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2000</v>
       </c>
@@ -3711,17 +3949,17 @@
       <c r="C16" s="10">
         <v>72</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="74">
         <v>18</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="G16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2001</v>
       </c>
@@ -3731,17 +3969,17 @@
       <c r="C17" s="10">
         <v>80</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="74">
         <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="G17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2002</v>
       </c>
@@ -3751,14 +3989,14 @@
       <c r="C18" s="10">
         <v>88</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="13">
         <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2003</v>
       </c>
@@ -3771,14 +4009,14 @@
       <c r="D19" s="10">
         <v>36</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="G19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E19" s="75">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2004</v>
       </c>
@@ -3791,11 +4029,12 @@
       <c r="D20" s="10">
         <v>42</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="72">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F20" s="45"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2005</v>
       </c>
@@ -3808,17 +4047,23 @@
       <c r="D21" s="10">
         <v>48</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="73">
         <v>8</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2006</v>
       </c>
@@ -3831,17 +4076,18 @@
       <c r="D22" s="10">
         <v>54</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="74">
         <v>12</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="F22" s="45"/>
+      <c r="H22" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2007</v>
       </c>
@@ -3854,14 +4100,15 @@
       <c r="D23" s="10">
         <v>60</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="74">
         <v>16</v>
       </c>
-      <c r="G23" t="s">
+      <c r="F23" s="45"/>
+      <c r="H23" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2008</v>
       </c>
@@ -3874,14 +4121,15 @@
       <c r="D24" s="10">
         <v>66</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="13">
         <v>20</v>
       </c>
-      <c r="G24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="45"/>
+      <c r="H24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2009</v>
       </c>
@@ -3897,11 +4145,12 @@
       <c r="E25" s="11">
         <v>24</v>
       </c>
-      <c r="G25" t="s">
+      <c r="F25" s="19"/>
+      <c r="H25" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -3922,43 +4171,43 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G27" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>106</v>
-      </c>
-      <c r="G28" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H31" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>108</v>
-      </c>
-      <c r="G30" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H32" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G32" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3967,6 +4216,112 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DB1483-9CC9-2F4E-83A7-AE1B5CB4D0D4}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScale="297" zoomScaleNormal="297" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1986</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1992</v>
+      </c>
+      <c r="B3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1998</v>
+      </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A91786-16AB-C24D-8ACB-8D903D480A4A}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -4305,7 +4660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E7CEF5-FDCD-594B-9FB3-DB278821F2A8}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -4559,7 +4914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A9CFAB-2F74-294C-962D-2EF94BD601E1}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -4739,114 +5094,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0B6FC2-9930-E046-9895-0CFC4EF2A4F2}">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2004</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>B2*4</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2005</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C7" si="0">B3*4</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2006</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2007</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2008</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2009</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <f>AVERAGE(C2:C7)</f>
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Code/Coding together/manual_att.xlsx
+++ b/Code/Coding together/manual_att.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scott_cunningham/Documents/Difference-in-Differences/Code/Coding together/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4BBAF3-2B18-6D4C-AB14-2F9043159E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C7667C-B268-5C44-94F1-FD601388C09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="50280" windowHeight="28300" activeTab="4" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="50280" windowHeight="27120" activeTab="3" xr2:uid="{2EE18137-9303-494C-8C32-9DE193BE7F81}"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="1" r:id="rId1"/>
     <sheet name="Overall ATT" sheetId="6" r:id="rId2"/>
     <sheet name="Not yet treated" sheetId="8" r:id="rId3"/>
-    <sheet name="Castle" sheetId="9" r:id="rId4"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId5"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId6"/>
-    <sheet name="1986" sheetId="2" r:id="rId7"/>
-    <sheet name="1992" sheetId="3" r:id="rId8"/>
-    <sheet name="1998" sheetId="4" r:id="rId9"/>
-    <sheet name="2004" sheetId="5" r:id="rId10"/>
+    <sheet name="Example Dynamics" sheetId="11" r:id="rId4"/>
+    <sheet name="Castle" sheetId="9" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId7"/>
+    <sheet name="1986" sheetId="2" r:id="rId8"/>
+    <sheet name="1992" sheetId="3" r:id="rId9"/>
+    <sheet name="1998" sheetId="4" r:id="rId10"/>
+    <sheet name="2004" sheetId="5" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="181">
   <si>
     <t>Treatment group</t>
   </si>
@@ -564,6 +565,27 @@
   </si>
   <si>
     <t>mu hat t+1</t>
+  </si>
+  <si>
+    <t>CS ATT</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>TWFE</t>
+  </si>
+  <si>
+    <t>Uses all data, but gets it wrong</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Only uses the colored and units to right as controls</t>
+  </si>
+  <si>
+    <t>t+7</t>
   </si>
 </sst>
 </file>
@@ -601,7 +623,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,8 +714,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -846,11 +898,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -892,7 +968,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -909,9 +984,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -949,6 +1021,37 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1467,6 +1570,188 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A9CFAB-2F74-294C-962D-2EF94BD601E1}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView zoomScale="271" zoomScaleNormal="271" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1998</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>B2*6</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1999</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C13" si="0">B3*6</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2002</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2004</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2005</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2006</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2007</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2008</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2009</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <f>AVERAGE(C2:C13)</f>
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC0B6FC2-9930-E046-9895-0CFC4EF2A4F2}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -2221,10 +2506,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23B26958-D2FD-B340-96F0-C0F0E677AC3F}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView zoomScale="222" zoomScaleNormal="222" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection sqref="A1:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2263,10 +2548,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="20">
-        <v>1986</v>
-      </c>
-      <c r="B2" s="28">
-        <v>10</v>
+        <v>1980</v>
+      </c>
+      <c r="B2" s="26">
+        <v>0</v>
       </c>
       <c r="C2" s="26">
         <v>0</v>
@@ -2274,31 +2559,21 @@
       <c r="D2" s="26">
         <v>0</v>
       </c>
-      <c r="E2" s="27">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
-        <v>1986</v>
-      </c>
-      <c r="I2" s="31">
-        <v>10</v>
-      </c>
-      <c r="J2" s="36">
-        <v>0</v>
-      </c>
-      <c r="K2" s="36">
-        <v>0</v>
-      </c>
-      <c r="L2" s="37">
-        <v>0</v>
-      </c>
+      <c r="E2" s="26">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="20">
-        <v>1987</v>
-      </c>
-      <c r="B3" s="28">
-        <v>20</v>
+        <v>1981</v>
+      </c>
+      <c r="B3" s="26">
+        <v>0</v>
       </c>
       <c r="C3" s="26">
         <v>0</v>
@@ -2306,31 +2581,21 @@
       <c r="D3" s="26">
         <v>0</v>
       </c>
-      <c r="E3" s="27">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
-        <v>1987</v>
-      </c>
-      <c r="I3" s="32">
-        <v>20</v>
-      </c>
-      <c r="J3" s="38">
-        <v>0</v>
-      </c>
-      <c r="K3" s="38">
-        <v>0</v>
-      </c>
-      <c r="L3" s="39">
-        <v>0</v>
-      </c>
+      <c r="E3" s="26">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="20">
-        <v>1988</v>
-      </c>
-      <c r="B4" s="28">
-        <v>30</v>
+        <v>1982</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0</v>
       </c>
       <c r="C4" s="26">
         <v>0</v>
@@ -2338,34 +2603,21 @@
       <c r="D4" s="26">
         <v>0</v>
       </c>
-      <c r="E4" s="27">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
-        <v>1988</v>
-      </c>
-      <c r="I4" s="32">
-        <v>30</v>
-      </c>
-      <c r="J4" s="38">
-        <v>0</v>
-      </c>
-      <c r="K4" s="38">
-        <v>0</v>
-      </c>
-      <c r="L4" s="39">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>108</v>
-      </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="20">
-        <v>1989</v>
-      </c>
-      <c r="B5" s="28">
-        <v>40</v>
+        <v>1983</v>
+      </c>
+      <c r="B5" s="26">
+        <v>0</v>
       </c>
       <c r="C5" s="26">
         <v>0</v>
@@ -2373,34 +2625,21 @@
       <c r="D5" s="26">
         <v>0</v>
       </c>
-      <c r="E5" s="27">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
-        <v>1989</v>
-      </c>
-      <c r="I5" s="32">
-        <v>40</v>
-      </c>
-      <c r="J5" s="38">
-        <v>0</v>
-      </c>
-      <c r="K5" s="38">
-        <v>0</v>
-      </c>
-      <c r="L5" s="39">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
-        <v>1990</v>
-      </c>
-      <c r="B6" s="28">
-        <v>50</v>
+        <v>1984</v>
+      </c>
+      <c r="B6" s="26">
+        <v>0</v>
       </c>
       <c r="C6" s="26">
         <v>0</v>
@@ -2408,31 +2647,21 @@
       <c r="D6" s="26">
         <v>0</v>
       </c>
-      <c r="E6" s="27">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
-        <v>1990</v>
-      </c>
-      <c r="I6" s="32">
-        <v>50</v>
-      </c>
-      <c r="J6" s="38">
-        <v>0</v>
-      </c>
-      <c r="K6" s="38">
-        <v>0</v>
-      </c>
-      <c r="L6" s="39">
-        <v>0</v>
-      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
-        <v>1991</v>
-      </c>
-      <c r="B7" s="28">
-        <v>60</v>
+        <v>1985</v>
+      </c>
+      <c r="B7" s="72">
+        <v>0</v>
       </c>
       <c r="C7" s="26">
         <v>0</v>
@@ -2440,34 +2669,24 @@
       <c r="D7" s="26">
         <v>0</v>
       </c>
-      <c r="E7" s="27">
-        <v>0</v>
-      </c>
-      <c r="H7" s="18">
-        <v>1991</v>
-      </c>
-      <c r="I7" s="32">
-        <v>60</v>
-      </c>
-      <c r="J7" s="38">
-        <v>0</v>
-      </c>
-      <c r="K7" s="38">
-        <v>0</v>
-      </c>
-      <c r="L7" s="39">
-        <v>0</v>
-      </c>
+      <c r="E7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
-        <v>1992</v>
-      </c>
-      <c r="B8" s="28">
-        <v>70</v>
-      </c>
-      <c r="C8" s="30">
-        <v>8</v>
+        <v>1986</v>
+      </c>
+      <c r="B8" s="73">
+        <v>10</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0</v>
       </c>
       <c r="D8" s="26">
         <v>0</v>
@@ -2476,30 +2695,30 @@
         <v>0</v>
       </c>
       <c r="H8" s="18">
-        <v>1992</v>
-      </c>
-      <c r="I8" s="33">
-        <v>70</v>
-      </c>
-      <c r="J8" s="34">
-        <v>8</v>
-      </c>
-      <c r="K8" s="40">
-        <v>0</v>
-      </c>
-      <c r="L8" s="35">
+        <v>1986</v>
+      </c>
+      <c r="I8" s="30">
+        <v>10</v>
+      </c>
+      <c r="J8" s="35">
+        <v>0</v>
+      </c>
+      <c r="K8" s="35">
+        <v>0</v>
+      </c>
+      <c r="L8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
-        <v>1993</v>
-      </c>
-      <c r="B9" s="28">
-        <v>80</v>
-      </c>
-      <c r="C9" s="28">
-        <v>16</v>
+        <v>1987</v>
+      </c>
+      <c r="B9" s="73">
+        <v>20</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0</v>
       </c>
       <c r="D9" s="26">
         <v>0</v>
@@ -2508,30 +2727,30 @@
         <v>0</v>
       </c>
       <c r="H9" s="18">
-        <v>1993</v>
-      </c>
-      <c r="I9" s="33">
-        <v>80</v>
-      </c>
-      <c r="J9" s="35">
-        <v>16</v>
-      </c>
-      <c r="K9" s="40">
-        <v>0</v>
-      </c>
-      <c r="L9" s="35">
+        <v>1987</v>
+      </c>
+      <c r="I9" s="31">
+        <v>20</v>
+      </c>
+      <c r="J9" s="37">
+        <v>0</v>
+      </c>
+      <c r="K9" s="37">
+        <v>0</v>
+      </c>
+      <c r="L9" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
-        <v>1994</v>
-      </c>
-      <c r="B10" s="28">
-        <v>90</v>
-      </c>
-      <c r="C10" s="28">
-        <v>24</v>
+        <v>1988</v>
+      </c>
+      <c r="B10" s="73">
+        <v>30</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0</v>
       </c>
       <c r="D10" s="26">
         <v>0</v>
@@ -2540,33 +2759,33 @@
         <v>0</v>
       </c>
       <c r="H10" s="18">
-        <v>1994</v>
-      </c>
-      <c r="I10" s="33">
-        <v>90</v>
-      </c>
-      <c r="J10" s="35">
-        <v>24</v>
-      </c>
-      <c r="K10" s="40">
-        <v>0</v>
-      </c>
-      <c r="L10" s="35">
+        <v>1988</v>
+      </c>
+      <c r="I10" s="31">
+        <v>30</v>
+      </c>
+      <c r="J10" s="37">
+        <v>0</v>
+      </c>
+      <c r="K10" s="37">
+        <v>0</v>
+      </c>
+      <c r="L10" s="38">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
-        <v>1995</v>
-      </c>
-      <c r="B11" s="28">
-        <v>100</v>
-      </c>
-      <c r="C11" s="28">
-        <v>32</v>
+        <v>1989</v>
+      </c>
+      <c r="B11" s="73">
+        <v>40</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0</v>
       </c>
       <c r="D11" s="26">
         <v>0</v>
@@ -2575,33 +2794,33 @@
         <v>0</v>
       </c>
       <c r="H11" s="18">
-        <v>1995</v>
-      </c>
-      <c r="I11" s="33">
-        <v>100</v>
-      </c>
-      <c r="J11" s="35">
-        <v>32</v>
-      </c>
-      <c r="K11" s="40">
-        <v>0</v>
-      </c>
-      <c r="L11" s="35">
+        <v>1989</v>
+      </c>
+      <c r="I11" s="31">
+        <v>40</v>
+      </c>
+      <c r="J11" s="37">
+        <v>0</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0</v>
+      </c>
+      <c r="L11" s="38">
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
-        <v>1996</v>
-      </c>
-      <c r="B12" s="28">
-        <v>110</v>
-      </c>
-      <c r="C12" s="28">
-        <v>40</v>
+        <v>1990</v>
+      </c>
+      <c r="B12" s="73">
+        <v>50</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0</v>
       </c>
       <c r="D12" s="26">
         <v>0</v>
@@ -2610,30 +2829,30 @@
         <v>0</v>
       </c>
       <c r="H12" s="18">
-        <v>1996</v>
-      </c>
-      <c r="I12" s="33">
-        <v>110</v>
-      </c>
-      <c r="J12" s="35">
-        <v>40</v>
-      </c>
-      <c r="K12" s="40">
-        <v>0</v>
-      </c>
-      <c r="L12" s="35">
+        <v>1990</v>
+      </c>
+      <c r="I12" s="31">
+        <v>50</v>
+      </c>
+      <c r="J12" s="37">
+        <v>0</v>
+      </c>
+      <c r="K12" s="37">
+        <v>0</v>
+      </c>
+      <c r="L12" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
-        <v>1997</v>
-      </c>
-      <c r="B13" s="28">
-        <v>120</v>
-      </c>
-      <c r="C13" s="28">
-        <v>48</v>
+        <v>1991</v>
+      </c>
+      <c r="B13" s="73">
+        <v>60</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0</v>
       </c>
       <c r="D13" s="26">
         <v>0</v>
@@ -2642,537 +2861,735 @@
         <v>0</v>
       </c>
       <c r="H13" s="18">
-        <v>1997</v>
-      </c>
-      <c r="I13" s="33">
-        <v>120</v>
-      </c>
-      <c r="J13" s="35">
-        <v>48</v>
-      </c>
-      <c r="K13" s="40">
-        <v>0</v>
-      </c>
-      <c r="L13" s="35">
+        <v>1991</v>
+      </c>
+      <c r="I13" s="31">
+        <v>60</v>
+      </c>
+      <c r="J13" s="37">
+        <v>0</v>
+      </c>
+      <c r="K13" s="37">
+        <v>0</v>
+      </c>
+      <c r="L13" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="20">
-        <v>1998</v>
-      </c>
-      <c r="B14" s="28">
-        <v>130</v>
-      </c>
-      <c r="C14" s="28">
-        <v>56</v>
-      </c>
-      <c r="D14" s="30">
-        <v>6</v>
+        <v>1992</v>
+      </c>
+      <c r="B14" s="73">
+        <v>70</v>
+      </c>
+      <c r="C14" s="75">
+        <v>8</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0</v>
       </c>
       <c r="E14" s="27">
         <v>0</v>
       </c>
       <c r="H14" s="18">
-        <v>1998</v>
-      </c>
-      <c r="I14" s="41">
-        <v>130</v>
-      </c>
-      <c r="J14" s="42">
-        <v>56</v>
-      </c>
-      <c r="K14" s="43">
-        <v>6</v>
-      </c>
-      <c r="L14" s="42">
+        <v>1992</v>
+      </c>
+      <c r="I14" s="32">
+        <v>70</v>
+      </c>
+      <c r="J14" s="33">
+        <v>8</v>
+      </c>
+      <c r="K14" s="39">
+        <v>0</v>
+      </c>
+      <c r="L14" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="20">
-        <v>1999</v>
-      </c>
-      <c r="B15" s="28">
-        <v>140</v>
-      </c>
-      <c r="C15" s="28">
-        <v>64</v>
-      </c>
-      <c r="D15" s="28">
-        <v>12</v>
+        <v>1993</v>
+      </c>
+      <c r="B15" s="73">
+        <v>80</v>
+      </c>
+      <c r="C15" s="76">
+        <v>16</v>
+      </c>
+      <c r="D15" s="26">
+        <v>0</v>
       </c>
       <c r="E15" s="27">
         <v>0</v>
       </c>
       <c r="H15" s="18">
-        <v>1999</v>
-      </c>
-      <c r="I15" s="41">
-        <v>140</v>
-      </c>
-      <c r="J15" s="42">
-        <v>64</v>
-      </c>
-      <c r="K15" s="42">
-        <v>12</v>
-      </c>
-      <c r="L15" s="42">
+        <v>1993</v>
+      </c>
+      <c r="I15" s="32">
+        <v>80</v>
+      </c>
+      <c r="J15" s="34">
+        <v>16</v>
+      </c>
+      <c r="K15" s="39">
+        <v>0</v>
+      </c>
+      <c r="L15" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="20">
-        <v>2000</v>
-      </c>
-      <c r="B16" s="28">
-        <v>150</v>
-      </c>
-      <c r="C16" s="28">
-        <v>72</v>
-      </c>
-      <c r="D16" s="28">
-        <v>18</v>
+        <v>1994</v>
+      </c>
+      <c r="B16" s="73">
+        <v>90</v>
+      </c>
+      <c r="C16" s="76">
+        <v>24</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0</v>
       </c>
       <c r="E16" s="27">
         <v>0</v>
       </c>
       <c r="H16" s="18">
-        <v>2000</v>
-      </c>
-      <c r="I16" s="41">
-        <v>150</v>
-      </c>
-      <c r="J16" s="42">
-        <v>72</v>
-      </c>
-      <c r="K16" s="42">
-        <v>18</v>
-      </c>
-      <c r="L16" s="42">
+        <v>1994</v>
+      </c>
+      <c r="I16" s="32">
+        <v>90</v>
+      </c>
+      <c r="J16" s="34">
+        <v>24</v>
+      </c>
+      <c r="K16" s="39">
+        <v>0</v>
+      </c>
+      <c r="L16" s="34">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="20">
-        <v>2001</v>
-      </c>
-      <c r="B17" s="28">
-        <v>160</v>
-      </c>
-      <c r="C17" s="28">
-        <v>80</v>
-      </c>
-      <c r="D17" s="28">
-        <v>24</v>
+        <v>1995</v>
+      </c>
+      <c r="B17" s="73">
+        <v>100</v>
+      </c>
+      <c r="C17" s="76">
+        <v>32</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0</v>
       </c>
       <c r="E17" s="27">
         <v>0</v>
       </c>
       <c r="H17" s="18">
-        <v>2001</v>
-      </c>
-      <c r="I17" s="41">
-        <v>160</v>
-      </c>
-      <c r="J17" s="42">
-        <v>80</v>
-      </c>
-      <c r="K17" s="42">
-        <v>24</v>
-      </c>
-      <c r="L17" s="42">
+        <v>1995</v>
+      </c>
+      <c r="I17" s="32">
+        <v>100</v>
+      </c>
+      <c r="J17" s="34">
+        <v>32</v>
+      </c>
+      <c r="K17" s="39">
+        <v>0</v>
+      </c>
+      <c r="L17" s="34">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="20">
-        <v>2002</v>
-      </c>
-      <c r="B18" s="28">
-        <v>170</v>
-      </c>
-      <c r="C18" s="28">
-        <v>88</v>
-      </c>
-      <c r="D18" s="28">
-        <v>30</v>
+        <v>1996</v>
+      </c>
+      <c r="B18" s="73">
+        <v>110</v>
+      </c>
+      <c r="C18" s="76">
+        <v>40</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0</v>
       </c>
       <c r="E18" s="27">
         <v>0</v>
       </c>
       <c r="H18" s="18">
-        <v>2002</v>
-      </c>
-      <c r="I18" s="41">
-        <v>170</v>
-      </c>
-      <c r="J18" s="42">
-        <v>88</v>
-      </c>
-      <c r="K18" s="42">
-        <v>30</v>
-      </c>
-      <c r="L18" s="42">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>114</v>
+        <v>1996</v>
+      </c>
+      <c r="I18" s="32">
+        <v>110</v>
+      </c>
+      <c r="J18" s="34">
+        <v>40</v>
+      </c>
+      <c r="K18" s="39">
+        <v>0</v>
+      </c>
+      <c r="L18" s="34">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
-        <v>2003</v>
-      </c>
-      <c r="B19" s="28">
-        <v>180</v>
-      </c>
-      <c r="C19" s="28">
-        <v>96</v>
-      </c>
-      <c r="D19" s="28">
-        <v>36</v>
+        <v>1997</v>
+      </c>
+      <c r="B19" s="73">
+        <v>120</v>
+      </c>
+      <c r="C19" s="76">
+        <v>48</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0</v>
       </c>
       <c r="E19" s="27">
         <v>0</v>
       </c>
       <c r="H19" s="18">
-        <v>2003</v>
-      </c>
-      <c r="I19" s="41">
-        <v>180</v>
-      </c>
-      <c r="J19" s="42">
-        <v>96</v>
-      </c>
-      <c r="K19" s="42">
-        <v>36</v>
-      </c>
-      <c r="L19" s="42">
+        <v>1997</v>
+      </c>
+      <c r="I19" s="32">
+        <v>120</v>
+      </c>
+      <c r="J19" s="34">
+        <v>48</v>
+      </c>
+      <c r="K19" s="39">
+        <v>0</v>
+      </c>
+      <c r="L19" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="20">
-        <v>2004</v>
-      </c>
-      <c r="B20" s="28">
-        <v>190</v>
-      </c>
-      <c r="C20" s="28">
-        <v>104</v>
-      </c>
-      <c r="D20" s="28">
-        <v>42</v>
-      </c>
-      <c r="E20" s="30">
-        <v>4</v>
-      </c>
-      <c r="H20" s="57">
-        <v>2004</v>
-      </c>
-      <c r="I20" s="58">
-        <v>190</v>
-      </c>
-      <c r="J20" s="59">
-        <v>104</v>
-      </c>
-      <c r="K20" s="59">
-        <v>42</v>
-      </c>
-      <c r="L20" s="60">
-        <v>4</v>
+        <v>1998</v>
+      </c>
+      <c r="B20" s="73">
+        <v>130</v>
+      </c>
+      <c r="C20" s="76">
+        <v>56</v>
+      </c>
+      <c r="D20" s="77">
+        <v>6</v>
+      </c>
+      <c r="E20" s="27">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1998</v>
+      </c>
+      <c r="I20" s="40">
+        <v>130</v>
+      </c>
+      <c r="J20" s="41">
+        <v>56</v>
+      </c>
+      <c r="K20" s="42">
+        <v>6</v>
+      </c>
+      <c r="L20" s="41">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="20">
-        <v>2005</v>
-      </c>
-      <c r="B21" s="28">
-        <v>200</v>
-      </c>
-      <c r="C21" s="28">
-        <v>112</v>
-      </c>
-      <c r="D21" s="28">
-        <v>48</v>
-      </c>
-      <c r="E21" s="28">
-        <v>8</v>
-      </c>
-      <c r="H21" s="57">
-        <v>2005</v>
-      </c>
-      <c r="I21" s="58">
-        <v>200</v>
-      </c>
-      <c r="J21" s="59">
-        <v>112</v>
-      </c>
-      <c r="K21" s="59">
-        <v>48</v>
-      </c>
-      <c r="L21" s="59">
-        <v>8</v>
+        <v>1999</v>
+      </c>
+      <c r="B21" s="73">
+        <v>140</v>
+      </c>
+      <c r="C21" s="76">
+        <v>64</v>
+      </c>
+      <c r="D21" s="78">
+        <v>12</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1999</v>
+      </c>
+      <c r="I21" s="40">
+        <v>140</v>
+      </c>
+      <c r="J21" s="41">
+        <v>64</v>
+      </c>
+      <c r="K21" s="41">
+        <v>12</v>
+      </c>
+      <c r="L21" s="41">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="20">
-        <v>2006</v>
-      </c>
-      <c r="B22" s="28">
-        <v>210</v>
-      </c>
-      <c r="C22" s="28">
-        <v>120</v>
-      </c>
-      <c r="D22" s="28">
-        <v>54</v>
-      </c>
-      <c r="E22" s="28">
-        <v>12</v>
-      </c>
-      <c r="H22" s="57">
-        <v>2006</v>
-      </c>
-      <c r="I22" s="58">
-        <v>210</v>
-      </c>
-      <c r="J22" s="59">
-        <v>120</v>
-      </c>
-      <c r="K22" s="59">
-        <v>54</v>
-      </c>
-      <c r="L22" s="59">
-        <v>12</v>
+        <v>2000</v>
+      </c>
+      <c r="B22" s="73">
+        <v>150</v>
+      </c>
+      <c r="C22" s="76">
+        <v>72</v>
+      </c>
+      <c r="D22" s="78">
+        <v>18</v>
+      </c>
+      <c r="E22" s="27">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>2000</v>
+      </c>
+      <c r="I22" s="40">
+        <v>150</v>
+      </c>
+      <c r="J22" s="41">
+        <v>72</v>
+      </c>
+      <c r="K22" s="41">
+        <v>18</v>
+      </c>
+      <c r="L22" s="41">
+        <v>0</v>
       </c>
       <c r="M22" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="20">
-        <v>2007</v>
-      </c>
-      <c r="B23" s="28">
-        <v>220</v>
-      </c>
-      <c r="C23" s="28">
-        <v>128</v>
-      </c>
-      <c r="D23" s="28">
-        <v>60</v>
-      </c>
-      <c r="E23" s="28">
-        <v>16</v>
-      </c>
-      <c r="H23" s="57">
-        <v>2007</v>
-      </c>
-      <c r="I23" s="58">
-        <v>220</v>
-      </c>
-      <c r="J23" s="59">
-        <v>128</v>
-      </c>
-      <c r="K23" s="59">
-        <v>60</v>
-      </c>
-      <c r="L23" s="59">
-        <v>16</v>
+        <v>2001</v>
+      </c>
+      <c r="B23" s="73">
+        <v>160</v>
+      </c>
+      <c r="C23" s="76">
+        <v>80</v>
+      </c>
+      <c r="D23" s="78">
+        <v>24</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>2001</v>
+      </c>
+      <c r="I23" s="40">
+        <v>160</v>
+      </c>
+      <c r="J23" s="41">
+        <v>80</v>
+      </c>
+      <c r="K23" s="41">
+        <v>24</v>
+      </c>
+      <c r="L23" s="41">
+        <v>0</v>
       </c>
       <c r="M23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="20">
-        <v>2008</v>
-      </c>
-      <c r="B24" s="28">
-        <v>230</v>
-      </c>
-      <c r="C24" s="28">
-        <v>136</v>
-      </c>
-      <c r="D24" s="28">
-        <v>66</v>
-      </c>
-      <c r="E24" s="28">
-        <v>20</v>
-      </c>
-      <c r="H24" s="57">
-        <v>2008</v>
-      </c>
-      <c r="I24" s="58">
-        <v>230</v>
-      </c>
-      <c r="J24" s="59">
-        <v>136</v>
-      </c>
-      <c r="K24" s="59">
-        <v>66</v>
-      </c>
-      <c r="L24" s="59">
-        <v>20</v>
+        <v>2002</v>
+      </c>
+      <c r="B24" s="73">
+        <v>170</v>
+      </c>
+      <c r="C24" s="76">
+        <v>88</v>
+      </c>
+      <c r="D24" s="78">
+        <v>30</v>
+      </c>
+      <c r="E24" s="27">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
+        <v>2002</v>
+      </c>
+      <c r="I24" s="40">
+        <v>170</v>
+      </c>
+      <c r="J24" s="41">
+        <v>88</v>
+      </c>
+      <c r="K24" s="41">
+        <v>30</v>
+      </c>
+      <c r="L24" s="41">
+        <v>0</v>
       </c>
       <c r="M24" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20">
+        <v>2003</v>
+      </c>
+      <c r="B25" s="73">
+        <v>180</v>
+      </c>
+      <c r="C25" s="76">
+        <v>96</v>
+      </c>
+      <c r="D25" s="78">
+        <v>36</v>
+      </c>
+      <c r="E25" s="27">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
+        <v>2003</v>
+      </c>
+      <c r="I25" s="40">
+        <v>180</v>
+      </c>
+      <c r="J25" s="41">
+        <v>96</v>
+      </c>
+      <c r="K25" s="41">
+        <v>36</v>
+      </c>
+      <c r="L25" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="80">
+        <v>2004</v>
+      </c>
+      <c r="B26" s="81">
+        <v>190</v>
+      </c>
+      <c r="C26" s="82">
+        <v>104</v>
+      </c>
+      <c r="D26" s="81">
+        <v>42</v>
+      </c>
+      <c r="E26" s="81">
+        <v>4</v>
+      </c>
+      <c r="H26" s="53">
+        <v>2004</v>
+      </c>
+      <c r="I26" s="54">
+        <v>190</v>
+      </c>
+      <c r="J26" s="55">
+        <v>104</v>
+      </c>
+      <c r="K26" s="55">
+        <v>42</v>
+      </c>
+      <c r="L26" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="83">
+        <v>2005</v>
+      </c>
+      <c r="B27" s="84">
+        <v>200</v>
+      </c>
+      <c r="C27" s="85">
+        <v>112</v>
+      </c>
+      <c r="D27" s="84">
+        <v>48</v>
+      </c>
+      <c r="E27" s="84">
+        <v>8</v>
+      </c>
+      <c r="H27" s="53">
+        <v>2005</v>
+      </c>
+      <c r="I27" s="54">
+        <v>200</v>
+      </c>
+      <c r="J27" s="55">
+        <v>112</v>
+      </c>
+      <c r="K27" s="55">
+        <v>48</v>
+      </c>
+      <c r="L27" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="83">
+        <v>2006</v>
+      </c>
+      <c r="B28" s="84">
+        <v>210</v>
+      </c>
+      <c r="C28" s="85">
+        <v>120</v>
+      </c>
+      <c r="D28" s="84">
+        <v>54</v>
+      </c>
+      <c r="E28" s="84">
+        <v>12</v>
+      </c>
+      <c r="H28" s="53">
+        <v>2006</v>
+      </c>
+      <c r="I28" s="54">
+        <v>210</v>
+      </c>
+      <c r="J28" s="55">
+        <v>120</v>
+      </c>
+      <c r="K28" s="55">
+        <v>54</v>
+      </c>
+      <c r="L28" s="55">
+        <v>12</v>
+      </c>
+      <c r="M28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="83">
+        <v>2007</v>
+      </c>
+      <c r="B29" s="84">
+        <v>220</v>
+      </c>
+      <c r="C29" s="85">
+        <v>128</v>
+      </c>
+      <c r="D29" s="84">
+        <v>60</v>
+      </c>
+      <c r="E29" s="84">
+        <v>16</v>
+      </c>
+      <c r="H29" s="53">
+        <v>2007</v>
+      </c>
+      <c r="I29" s="54">
+        <v>220</v>
+      </c>
+      <c r="J29" s="55">
+        <v>128</v>
+      </c>
+      <c r="K29" s="55">
+        <v>60</v>
+      </c>
+      <c r="L29" s="55">
+        <v>16</v>
+      </c>
+      <c r="M29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="83">
+        <v>2008</v>
+      </c>
+      <c r="B30" s="84">
+        <v>230</v>
+      </c>
+      <c r="C30" s="85">
+        <v>136</v>
+      </c>
+      <c r="D30" s="84">
+        <v>66</v>
+      </c>
+      <c r="E30" s="84">
+        <v>20</v>
+      </c>
+      <c r="H30" s="53">
+        <v>2008</v>
+      </c>
+      <c r="I30" s="54">
+        <v>230</v>
+      </c>
+      <c r="J30" s="55">
+        <v>136</v>
+      </c>
+      <c r="K30" s="55">
+        <v>66</v>
+      </c>
+      <c r="L30" s="55">
+        <v>20</v>
+      </c>
+      <c r="M30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="86">
         <v>2009</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B31" s="87">
         <v>240</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C31" s="88">
         <v>144</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D31" s="87">
         <v>72</v>
       </c>
-      <c r="E25" s="29">
+      <c r="E31" s="87">
         <v>24</v>
       </c>
-      <c r="H25" s="57">
+      <c r="H31" s="53">
         <v>2009</v>
       </c>
-      <c r="I25" s="61">
+      <c r="I31" s="57">
         <v>240</v>
       </c>
-      <c r="J25" s="62">
+      <c r="J31" s="58">
         <v>144</v>
       </c>
-      <c r="K25" s="62">
+      <c r="K31" s="58">
         <v>72</v>
       </c>
-      <c r="L25" s="62">
+      <c r="L31" s="58">
         <v>24</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M31" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+    <row r="32" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="46">
-        <f>AVERAGE(B2:B25)</f>
+      <c r="B32" s="47">
+        <f>AVERAGE(B8:B31)</f>
         <v>125</v>
       </c>
-      <c r="C26" s="47">
-        <f>AVERAGE(C8:C25)</f>
+      <c r="C32" s="79">
+        <f>AVERAGE(C14:C31)</f>
         <v>76</v>
       </c>
-      <c r="D26" s="47">
-        <f>AVERAGE(D14:D25)</f>
+      <c r="D32" s="79">
+        <f>AVERAGE(D20:D31)</f>
         <v>39</v>
       </c>
-      <c r="E26" s="48">
-        <f>AVERAGE(E20:E25)</f>
+      <c r="E32" s="43">
+        <f>AVERAGE(E26:E31)</f>
         <v>14</v>
       </c>
-      <c r="H26" s="18" t="s">
+      <c r="H32" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="54">
-        <f>AVERAGE(I2:I19)</f>
+      <c r="I32" s="50">
+        <f>AVERAGE(I8:I25)</f>
         <v>95</v>
       </c>
-      <c r="J26" s="52">
-        <f>AVERAGE(J8:J19)</f>
+      <c r="J32" s="48">
+        <f>AVERAGE(J14:J25)</f>
         <v>52</v>
       </c>
-      <c r="K26" s="53">
-        <f>AVERAGE(K14:K19)</f>
+      <c r="K32" s="49">
+        <f>AVERAGE(K20:K25)</f>
         <v>21</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="L32" s="18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="50">
-        <f>AVERAGE(B2:B25,C8:C25,D14:D25,E20:E25)</f>
+      <c r="B33" s="46">
+        <f>AVERAGE(B8:B31,C14:C31,D20:D31,E26:E31)</f>
         <v>82</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G33" t="s">
         <v>124</v>
       </c>
-      <c r="H27" s="55" t="s">
+      <c r="H33" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="I27" s="56">
-        <f>AVERAGE(I2:I19,J8:J19,K14:K19)</f>
+      <c r="I33" s="52">
+        <f>AVERAGE(I8:I25,J14:J25,K20:K25)</f>
         <v>68.333333333333329</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M33" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+    <row r="34" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="44">
-        <f>AVERAGE(B26:E26)</f>
+      <c r="B34" s="43">
+        <f>AVERAGE(B32:E32)</f>
         <v>63.5</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G34" t="s">
         <v>124</v>
       </c>
-      <c r="H28" s="51" t="s">
+      <c r="H34" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="I28" s="44">
-        <f>AVERAGE(I26:K26)</f>
+      <c r="I34" s="43">
+        <f>AVERAGE(I32:K32)</f>
         <v>56</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M34" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
-      <c r="M29" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="44"/>
+      <c r="M35" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3182,6 +3599,665 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427D7F9C-7557-8540-96D6-26937F7166FA}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="89" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="90">
+        <v>1980</v>
+      </c>
+      <c r="B2" s="26">
+        <v>0</v>
+      </c>
+      <c r="C2" s="26">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26">
+        <v>0</v>
+      </c>
+      <c r="E2" s="91">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="90">
+        <v>1981</v>
+      </c>
+      <c r="B3" s="26">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26">
+        <v>0</v>
+      </c>
+      <c r="D3" s="26">
+        <v>0</v>
+      </c>
+      <c r="E3" s="91">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="90">
+        <v>1982</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="90">
+        <v>1983</v>
+      </c>
+      <c r="B5" s="26">
+        <v>0</v>
+      </c>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="90">
+        <v>1984</v>
+      </c>
+      <c r="B6" s="26">
+        <v>0</v>
+      </c>
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="91">
+        <v>0</v>
+      </c>
+      <c r="G6" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="99">
+        <f>AVERAGE(B8,C14,D20)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="90">
+        <v>1985</v>
+      </c>
+      <c r="B7" s="26">
+        <v>0</v>
+      </c>
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+      <c r="E7" s="91">
+        <v>0</v>
+      </c>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99">
+        <f t="shared" ref="H7:H10" si="0">AVERAGE(B9,C15,D21)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="90">
+        <v>1986</v>
+      </c>
+      <c r="B8" s="93">
+        <v>10</v>
+      </c>
+      <c r="C8" s="26">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0</v>
+      </c>
+      <c r="E8" s="91">
+        <v>0</v>
+      </c>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="90">
+        <v>1987</v>
+      </c>
+      <c r="B9" s="94">
+        <v>20</v>
+      </c>
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="91">
+        <v>0</v>
+      </c>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="90">
+        <v>1988</v>
+      </c>
+      <c r="B10" s="94">
+        <v>30</v>
+      </c>
+      <c r="C10" s="26">
+        <v>0</v>
+      </c>
+      <c r="D10" s="26">
+        <v>0</v>
+      </c>
+      <c r="E10" s="91">
+        <v>0</v>
+      </c>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="90">
+        <v>1989</v>
+      </c>
+      <c r="B11" s="94">
+        <v>40</v>
+      </c>
+      <c r="C11" s="26">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="91">
+        <v>0</v>
+      </c>
+      <c r="G11" s="102" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="102">
+        <f>AVERAGE(B14,C20)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="90">
+        <v>1990</v>
+      </c>
+      <c r="B12" s="94">
+        <v>50</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0</v>
+      </c>
+      <c r="D12" s="26">
+        <v>0</v>
+      </c>
+      <c r="E12" s="91">
+        <v>0</v>
+      </c>
+      <c r="H12" s="102">
+        <f t="shared" ref="H12:H16" si="1">AVERAGE(B15,C21)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="90">
+        <v>1991</v>
+      </c>
+      <c r="B13" s="94">
+        <v>60</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0</v>
+      </c>
+      <c r="D13" s="26">
+        <v>0</v>
+      </c>
+      <c r="E13" s="91">
+        <v>0</v>
+      </c>
+      <c r="H13" s="102">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="90">
+        <v>1992</v>
+      </c>
+      <c r="B14" s="100">
+        <v>70</v>
+      </c>
+      <c r="C14" s="95">
+        <v>8</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0</v>
+      </c>
+      <c r="E14" s="91">
+        <v>0</v>
+      </c>
+      <c r="H14" s="102">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="90">
+        <v>1993</v>
+      </c>
+      <c r="B15" s="100">
+        <v>80</v>
+      </c>
+      <c r="C15" s="96">
+        <v>16</v>
+      </c>
+      <c r="D15" s="26">
+        <v>0</v>
+      </c>
+      <c r="E15" s="91">
+        <v>0</v>
+      </c>
+      <c r="H15" s="102">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="90">
+        <v>1994</v>
+      </c>
+      <c r="B16" s="100">
+        <v>90</v>
+      </c>
+      <c r="C16" s="96">
+        <v>24</v>
+      </c>
+      <c r="D16" s="26">
+        <v>0</v>
+      </c>
+      <c r="E16" s="91">
+        <v>0</v>
+      </c>
+      <c r="H16" s="102">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="90">
+        <v>1995</v>
+      </c>
+      <c r="B17" s="100">
+        <v>100</v>
+      </c>
+      <c r="C17" s="96">
+        <v>32</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0</v>
+      </c>
+      <c r="E17" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="90">
+        <v>1996</v>
+      </c>
+      <c r="B18" s="100">
+        <v>110</v>
+      </c>
+      <c r="C18" s="96">
+        <v>40</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+      <c r="E18" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="90">
+        <v>1997</v>
+      </c>
+      <c r="B19" s="100">
+        <v>120</v>
+      </c>
+      <c r="C19" s="96">
+        <v>48</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0</v>
+      </c>
+      <c r="E19" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="90">
+        <v>1998</v>
+      </c>
+      <c r="B20" s="73">
+        <v>130</v>
+      </c>
+      <c r="C20" s="101">
+        <v>56</v>
+      </c>
+      <c r="D20" s="97">
+        <v>6</v>
+      </c>
+      <c r="E20" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="90">
+        <v>1999</v>
+      </c>
+      <c r="B21" s="73">
+        <v>140</v>
+      </c>
+      <c r="C21" s="101">
+        <v>64</v>
+      </c>
+      <c r="D21" s="98">
+        <v>12</v>
+      </c>
+      <c r="E21" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="90">
+        <v>2000</v>
+      </c>
+      <c r="B22" s="73">
+        <v>150</v>
+      </c>
+      <c r="C22" s="101">
+        <v>72</v>
+      </c>
+      <c r="D22" s="98">
+        <v>18</v>
+      </c>
+      <c r="E22" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="90">
+        <v>2001</v>
+      </c>
+      <c r="B23" s="73">
+        <v>160</v>
+      </c>
+      <c r="C23" s="101">
+        <v>80</v>
+      </c>
+      <c r="D23" s="98">
+        <v>24</v>
+      </c>
+      <c r="E23" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="90">
+        <v>2002</v>
+      </c>
+      <c r="B24" s="73">
+        <v>170</v>
+      </c>
+      <c r="C24" s="101">
+        <v>88</v>
+      </c>
+      <c r="D24" s="98">
+        <v>30</v>
+      </c>
+      <c r="E24" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="90">
+        <v>2003</v>
+      </c>
+      <c r="B25" s="74">
+        <v>180</v>
+      </c>
+      <c r="C25" s="101">
+        <v>96</v>
+      </c>
+      <c r="D25" s="98">
+        <v>36</v>
+      </c>
+      <c r="E25" s="91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="80">
+        <v>2004</v>
+      </c>
+      <c r="B26" s="81">
+        <v>190</v>
+      </c>
+      <c r="C26" s="81">
+        <v>104</v>
+      </c>
+      <c r="D26" s="81">
+        <v>42</v>
+      </c>
+      <c r="E26" s="82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="83">
+        <v>2005</v>
+      </c>
+      <c r="B27" s="84">
+        <v>200</v>
+      </c>
+      <c r="C27" s="84">
+        <v>112</v>
+      </c>
+      <c r="D27" s="84">
+        <v>48</v>
+      </c>
+      <c r="E27" s="85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="83">
+        <v>2006</v>
+      </c>
+      <c r="B28" s="84">
+        <v>210</v>
+      </c>
+      <c r="C28" s="84">
+        <v>120</v>
+      </c>
+      <c r="D28" s="84">
+        <v>54</v>
+      </c>
+      <c r="E28" s="85">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="83">
+        <v>2007</v>
+      </c>
+      <c r="B29" s="84">
+        <v>220</v>
+      </c>
+      <c r="C29" s="84">
+        <v>128</v>
+      </c>
+      <c r="D29" s="84">
+        <v>60</v>
+      </c>
+      <c r="E29" s="85">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="83">
+        <v>2008</v>
+      </c>
+      <c r="B30" s="84">
+        <v>230</v>
+      </c>
+      <c r="C30" s="84">
+        <v>136</v>
+      </c>
+      <c r="D30" s="84">
+        <v>66</v>
+      </c>
+      <c r="E30" s="85">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="86">
+        <v>2009</v>
+      </c>
+      <c r="B31" s="87">
+        <v>240</v>
+      </c>
+      <c r="C31" s="87">
+        <v>144</v>
+      </c>
+      <c r="D31" s="87">
+        <v>72</v>
+      </c>
+      <c r="E31" s="88">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="92">
+        <f>AVERAGE(B8:B31)</f>
+        <v>125</v>
+      </c>
+      <c r="C32" s="92">
+        <f>AVERAGE(C14:C31)</f>
+        <v>76</v>
+      </c>
+      <c r="D32" s="92">
+        <f>AVERAGE(D20:D31)</f>
+        <v>39</v>
+      </c>
+      <c r="E32" s="43">
+        <f>AVERAGE(E26:E31)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="29">
+        <f>AVERAGE(B8:B31,C14:C31,D20:D31,E26:E31)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="92">
+        <f>AVERAGE(B32:E32)</f>
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35">
+        <f>AVERAGE(B8:B25,C14:C25,D20:D25)</f>
+        <v>68.333333333333329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8450D091-0CF3-4E4E-A0C2-7C7B515B5A3B}">
   <dimension ref="A1:G36"/>
   <sheetViews>
@@ -3359,7 +4435,7 @@
       <c r="B8" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>134</v>
       </c>
       <c r="D8" s="27">
@@ -3557,11 +4633,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD037F86-B1EB-D145-9FD4-1C559B132293}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3589,7 +4665,7 @@
       <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="63" t="s">
+      <c r="G1" s="59" t="s">
         <v>153</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -3612,7 +4688,7 @@
       <c r="A2">
         <v>1986</v>
       </c>
-      <c r="B2" s="72">
+      <c r="B2" s="68">
         <v>10</v>
       </c>
       <c r="C2">
@@ -3624,10 +4700,10 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="G2" s="64">
+      <c r="G2" s="60">
         <v>1</v>
       </c>
-      <c r="H2" s="65">
+      <c r="H2" s="61">
         <v>0</v>
       </c>
       <c r="I2">
@@ -3645,7 +4721,7 @@
       <c r="A3">
         <v>1987</v>
       </c>
-      <c r="B3" s="73">
+      <c r="B3" s="69">
         <v>20</v>
       </c>
       <c r="C3">
@@ -3660,10 +4736,10 @@
       <c r="F3" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="66">
+      <c r="G3" s="62">
         <v>1</v>
       </c>
-      <c r="H3" s="67" t="str">
+      <c r="H3" s="63" t="str">
         <f>"+1"</f>
         <v>+1</v>
       </c>
@@ -3682,7 +4758,7 @@
       <c r="A4">
         <v>1988</v>
       </c>
-      <c r="B4" s="74">
+      <c r="B4" s="70">
         <v>30</v>
       </c>
       <c r="C4">
@@ -3694,10 +4770,10 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="64">
         <v>2</v>
       </c>
-      <c r="H4" s="69" t="str">
+      <c r="H4" s="65" t="str">
         <f>"+2"</f>
         <v>+2</v>
       </c>
@@ -3710,7 +4786,7 @@
       <c r="A5">
         <v>1989</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="70">
         <v>40</v>
       </c>
       <c r="C5">
@@ -3722,10 +4798,10 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="G5" s="70">
+      <c r="G5" s="66">
         <v>2</v>
       </c>
-      <c r="H5" s="71" t="str">
+      <c r="H5" s="67" t="str">
         <f>"+3"</f>
         <v>+3</v>
       </c>
@@ -3769,7 +4845,7 @@
       <c r="B7" s="10">
         <v>60</v>
       </c>
-      <c r="C7" s="75">
+      <c r="C7" s="71">
         <v>0</v>
       </c>
       <c r="D7">
@@ -3786,7 +4862,7 @@
       <c r="B8" s="10">
         <v>70</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="68">
         <v>8</v>
       </c>
       <c r="D8">
@@ -3806,7 +4882,7 @@
       <c r="B9" s="10">
         <v>80</v>
       </c>
-      <c r="C9" s="73">
+      <c r="C9" s="69">
         <v>16</v>
       </c>
       <c r="D9">
@@ -3829,7 +4905,7 @@
       <c r="B10" s="10">
         <v>90</v>
       </c>
-      <c r="C10" s="74">
+      <c r="C10" s="70">
         <v>24</v>
       </c>
       <c r="D10">
@@ -3849,7 +4925,7 @@
       <c r="B11" s="10">
         <v>100</v>
       </c>
-      <c r="C11" s="74">
+      <c r="C11" s="70">
         <v>32</v>
       </c>
       <c r="D11">
@@ -3889,7 +4965,7 @@
       <c r="C13" s="10">
         <v>48</v>
       </c>
-      <c r="D13" s="75">
+      <c r="D13" s="71">
         <v>0</v>
       </c>
       <c r="E13">
@@ -3909,7 +4985,7 @@
       <c r="C14" s="10">
         <v>56</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="68">
         <v>6</v>
       </c>
       <c r="E14">
@@ -3929,7 +5005,7 @@
       <c r="C15" s="10">
         <v>64</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="69">
         <v>12</v>
       </c>
       <c r="E15">
@@ -3949,7 +5025,7 @@
       <c r="C16" s="10">
         <v>72</v>
       </c>
-      <c r="D16" s="74">
+      <c r="D16" s="70">
         <v>18</v>
       </c>
       <c r="E16">
@@ -3969,7 +5045,7 @@
       <c r="C17" s="10">
         <v>80</v>
       </c>
-      <c r="D17" s="74">
+      <c r="D17" s="70">
         <v>24</v>
       </c>
       <c r="E17">
@@ -4009,7 +5085,7 @@
       <c r="D19" s="10">
         <v>36</v>
       </c>
-      <c r="E19" s="75">
+      <c r="E19" s="71">
         <v>0</v>
       </c>
       <c r="H19" t="s">
@@ -4029,10 +5105,10 @@
       <c r="D20" s="10">
         <v>42</v>
       </c>
-      <c r="E20" s="72">
+      <c r="E20" s="68">
         <v>4</v>
       </c>
-      <c r="F20" s="45"/>
+      <c r="F20" s="44"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -4047,10 +5123,10 @@
       <c r="D21" s="10">
         <v>48</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="69">
         <v>8</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="44" t="s">
         <v>172</v>
       </c>
       <c r="G21" t="s">
@@ -4076,10 +5152,10 @@
       <c r="D22" s="10">
         <v>54</v>
       </c>
-      <c r="E22" s="74">
+      <c r="E22" s="70">
         <v>12</v>
       </c>
-      <c r="F22" s="45"/>
+      <c r="F22" s="44"/>
       <c r="H22" s="15" t="s">
         <v>71</v>
       </c>
@@ -4100,10 +5176,10 @@
       <c r="D23" s="10">
         <v>60</v>
       </c>
-      <c r="E23" s="74">
+      <c r="E23" s="70">
         <v>16</v>
       </c>
-      <c r="F23" s="45"/>
+      <c r="F23" s="44"/>
       <c r="H23" t="s">
         <v>72</v>
       </c>
@@ -4124,7 +5200,7 @@
       <c r="E24" s="13">
         <v>20</v>
       </c>
-      <c r="F24" s="45"/>
+      <c r="F24" s="44"/>
       <c r="H24" t="s">
         <v>92</v>
       </c>
@@ -4215,7 +5291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DB1483-9CC9-2F4E-83A7-AE1B5CB4D0D4}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -4321,7 +5397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9A91786-16AB-C24D-8ACB-8D903D480A4A}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -4660,7 +5736,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E7CEF5-FDCD-594B-9FB3-DB278821F2A8}">
   <dimension ref="A1:D21"/>
   <sheetViews>
@@ -4912,186 +5988,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A9CFAB-2F74-294C-962D-2EF94BD601E1}">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView zoomScale="271" zoomScaleNormal="271" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1998</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>B2*6</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1999</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C13" si="0">B3*6</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2000</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2001</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2002</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2003</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2004</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2005</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2006</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2007</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2008</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2009</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15">
-        <f>AVERAGE(C2:C13)</f>
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>